--- a/resources/the_only_excel.xlsx
+++ b/resources/the_only_excel.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25128"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\hlocal\TFG\src\backend\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="M:\Universidad\Workspace\TFG-UroAnalytics\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E911EEBE-91BC-488B-926E-E843223AC8A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{692F5C9A-4501-4685-8B69-E5B0ABC2CBD3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SPSS" sheetId="2" r:id="rId1"/>
@@ -1523,34 +1523,34 @@
   <dimension ref="A1:BP270"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="85" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B268" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B256" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
       <selection pane="bottomRight" activeCell="A271" sqref="A271:XFD271"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="6.08203125" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="6.125" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.33203125" style="49" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.08203125" style="63" bestFit="1" customWidth="1"/>
-    <col min="3" max="44" width="6.33203125" style="49" bestFit="1" customWidth="1"/>
-    <col min="45" max="45" width="16.08203125" style="80" customWidth="1"/>
-    <col min="46" max="46" width="6.33203125" style="49" bestFit="1" customWidth="1"/>
-    <col min="47" max="47" width="10.83203125" style="63" bestFit="1" customWidth="1"/>
-    <col min="48" max="48" width="10.83203125" style="63" customWidth="1"/>
-    <col min="49" max="53" width="6.33203125" style="49" bestFit="1" customWidth="1"/>
-    <col min="54" max="54" width="6.33203125" style="49" customWidth="1"/>
-    <col min="55" max="59" width="6.33203125" style="49" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.375" style="49" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.125" style="63" bestFit="1" customWidth="1"/>
+    <col min="3" max="44" width="6.375" style="49" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="16.125" style="80" customWidth="1"/>
+    <col min="46" max="46" width="6.375" style="49" bestFit="1" customWidth="1"/>
+    <col min="47" max="47" width="10.875" style="63" bestFit="1" customWidth="1"/>
+    <col min="48" max="48" width="10.875" style="63" customWidth="1"/>
+    <col min="49" max="53" width="6.375" style="49" bestFit="1" customWidth="1"/>
+    <col min="54" max="54" width="6.375" style="49" customWidth="1"/>
+    <col min="55" max="59" width="6.375" style="49" bestFit="1" customWidth="1"/>
     <col min="60" max="60" width="20.25" style="49" customWidth="1"/>
-    <col min="61" max="61" width="16.33203125" style="49" customWidth="1"/>
-    <col min="62" max="63" width="6.08203125" style="49"/>
-    <col min="64" max="64" width="6.83203125" customWidth="1"/>
-    <col min="65" max="66" width="6.08203125" style="49"/>
+    <col min="61" max="61" width="16.375" style="49" customWidth="1"/>
+    <col min="62" max="63" width="6.125" style="49"/>
+    <col min="64" max="64" width="6.875" customWidth="1"/>
+    <col min="65" max="66" width="6.125" style="49"/>
     <col min="67" max="67" width="11" style="49" customWidth="1"/>
-    <col min="68" max="16384" width="6.08203125" style="49"/>
+    <col min="68" max="16384" width="6.125" style="49"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:68" s="50" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:68" s="50" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="50" t="s">
         <v>82</v>
       </c>
@@ -1756,7 +1756,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="2" spans="1:68" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A2" s="57">
         <v>1</v>
       </c>
@@ -1961,7 +1961,7 @@
         <v>0.00</v>
       </c>
     </row>
-    <row r="3" spans="1:68" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A3" s="57">
         <v>2</v>
       </c>
@@ -2168,7 +2168,7 @@
         <v>0.00</v>
       </c>
     </row>
-    <row r="4" spans="1:68" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A4" s="57">
         <v>3</v>
       </c>
@@ -2377,7 +2377,7 @@
         <v>0.00</v>
       </c>
     </row>
-    <row r="5" spans="1:68" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A5" s="57">
         <v>4</v>
       </c>
@@ -2580,7 +2580,7 @@
         <v>0.00</v>
       </c>
     </row>
-    <row r="6" spans="1:68" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A6" s="57">
         <v>5</v>
       </c>
@@ -2789,7 +2789,7 @@
         <v>0.00</v>
       </c>
     </row>
-    <row r="7" spans="1:68" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A7" s="57">
         <v>6</v>
       </c>
@@ -2994,7 +2994,7 @@
         <v>0.00</v>
       </c>
     </row>
-    <row r="8" spans="1:68" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A8" s="57">
         <v>7</v>
       </c>
@@ -3201,7 +3201,7 @@
         <v>0.00</v>
       </c>
     </row>
-    <row r="9" spans="1:68" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A9" s="57">
         <v>8</v>
       </c>
@@ -3404,7 +3404,7 @@
         <v>0.00</v>
       </c>
     </row>
-    <row r="10" spans="1:68" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A10" s="57">
         <v>9</v>
       </c>
@@ -3605,7 +3605,7 @@
         <v>0.00</v>
       </c>
     </row>
-    <row r="11" spans="1:68" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A11" s="57">
         <v>10</v>
       </c>
@@ -3808,7 +3808,7 @@
         <v>0.00</v>
       </c>
     </row>
-    <row r="12" spans="1:68" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A12" s="57">
         <v>11</v>
       </c>
@@ -4013,7 +4013,7 @@
         <v>0.00</v>
       </c>
     </row>
-    <row r="13" spans="1:68" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A13" s="57">
         <v>12</v>
       </c>
@@ -4218,7 +4218,7 @@
         <v>0.00</v>
       </c>
     </row>
-    <row r="14" spans="1:68" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A14" s="57">
         <v>13</v>
       </c>
@@ -4423,7 +4423,7 @@
         <v>0.00</v>
       </c>
     </row>
-    <row r="15" spans="1:68" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A15" s="57">
         <v>14</v>
       </c>
@@ -4626,7 +4626,7 @@
         <v>0.00</v>
       </c>
     </row>
-    <row r="16" spans="1:68" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A16" s="57">
         <v>15</v>
       </c>
@@ -4829,7 +4829,7 @@
         <v>0.00</v>
       </c>
     </row>
-    <row r="17" spans="1:68" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A17" s="57">
         <v>16</v>
       </c>
@@ -5036,7 +5036,7 @@
         <v>0.00</v>
       </c>
     </row>
-    <row r="18" spans="1:68" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A18" s="57">
         <v>17</v>
       </c>
@@ -5243,7 +5243,7 @@
         <v>0.00</v>
       </c>
     </row>
-    <row r="19" spans="1:68" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A19" s="57">
         <v>18</v>
       </c>
@@ -5448,7 +5448,7 @@
         <v>0.00</v>
       </c>
     </row>
-    <row r="20" spans="1:68" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A20" s="57">
         <v>19</v>
       </c>
@@ -5651,7 +5651,7 @@
         <v>0.00</v>
       </c>
     </row>
-    <row r="21" spans="1:68" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A21" s="57">
         <v>20</v>
       </c>
@@ -5856,7 +5856,7 @@
         <v>0.00</v>
       </c>
     </row>
-    <row r="22" spans="1:68" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A22" s="57">
         <v>21</v>
       </c>
@@ -6061,7 +6061,7 @@
         <v>0.00</v>
       </c>
     </row>
-    <row r="23" spans="1:68" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A23" s="57">
         <v>22</v>
       </c>
@@ -6264,7 +6264,7 @@
         <v>0.00</v>
       </c>
     </row>
-    <row r="24" spans="1:68" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A24" s="57">
         <v>23</v>
       </c>
@@ -6471,7 +6471,7 @@
         <v>0.00</v>
       </c>
     </row>
-    <row r="25" spans="1:68" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A25" s="57">
         <v>24</v>
       </c>
@@ -6676,7 +6676,7 @@
         <v>0.00</v>
       </c>
     </row>
-    <row r="26" spans="1:68" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A26" s="57">
         <v>25</v>
       </c>
@@ -6886,7 +6886,7 @@
         <v>0.00</v>
       </c>
     </row>
-    <row r="27" spans="1:68" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A27" s="57">
         <v>26</v>
       </c>
@@ -7091,7 +7091,7 @@
         <v>0.00</v>
       </c>
     </row>
-    <row r="28" spans="1:68" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A28" s="57">
         <v>27</v>
       </c>
@@ -7301,7 +7301,7 @@
         <v>0.00</v>
       </c>
     </row>
-    <row r="29" spans="1:68" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A29" s="57">
         <v>28</v>
       </c>
@@ -7507,7 +7507,7 @@
         <v>0.00</v>
       </c>
     </row>
-    <row r="30" spans="1:68" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A30" s="57">
         <v>29</v>
       </c>
@@ -7715,7 +7715,7 @@
         <v>0.00</v>
       </c>
     </row>
-    <row r="31" spans="1:68" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A31" s="57">
         <v>30</v>
       </c>
@@ -7920,7 +7920,7 @@
         <v>0.00</v>
       </c>
     </row>
-    <row r="32" spans="1:68" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A32" s="57">
         <v>31</v>
       </c>
@@ -8121,7 +8121,7 @@
         <v>0.00</v>
       </c>
     </row>
-    <row r="33" spans="1:68" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A33" s="57">
         <v>32</v>
       </c>
@@ -8328,7 +8328,7 @@
         <v>0.00</v>
       </c>
     </row>
-    <row r="34" spans="1:68" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A34" s="57">
         <v>33</v>
       </c>
@@ -8529,7 +8529,7 @@
         <v>0.00</v>
       </c>
     </row>
-    <row r="35" spans="1:68" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A35" s="57">
         <v>34</v>
       </c>
@@ -8732,7 +8732,7 @@
         <v>0.00</v>
       </c>
     </row>
-    <row r="36" spans="1:68" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A36" s="57">
         <v>35</v>
       </c>
@@ -8939,7 +8939,7 @@
         <v>0.00</v>
       </c>
     </row>
-    <row r="37" spans="1:68" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A37" s="57">
         <v>36</v>
       </c>
@@ -9146,7 +9146,7 @@
         <v>0.00</v>
       </c>
     </row>
-    <row r="38" spans="1:68" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A38" s="57">
         <v>37</v>
       </c>
@@ -9347,7 +9347,7 @@
         <v>0.00</v>
       </c>
     </row>
-    <row r="39" spans="1:68" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A39" s="57">
         <v>38</v>
       </c>
@@ -9552,7 +9552,7 @@
         <v>0.00</v>
       </c>
     </row>
-    <row r="40" spans="1:68" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A40" s="57">
         <v>39</v>
       </c>
@@ -9757,7 +9757,7 @@
         <v>0.00</v>
       </c>
     </row>
-    <row r="41" spans="1:68" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A41" s="57">
         <v>40</v>
       </c>
@@ -9962,7 +9962,7 @@
         <v>0.00</v>
       </c>
     </row>
-    <row r="42" spans="1:68" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A42" s="57">
         <v>41</v>
       </c>
@@ -10165,7 +10165,7 @@
         <v>0.00</v>
       </c>
     </row>
-    <row r="43" spans="1:68" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A43" s="57">
         <v>42</v>
       </c>
@@ -10372,7 +10372,7 @@
         <v>0.00</v>
       </c>
     </row>
-    <row r="44" spans="1:68" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A44" s="57">
         <v>43</v>
       </c>
@@ -10571,7 +10571,7 @@
         <v>0.00</v>
       </c>
     </row>
-    <row r="45" spans="1:68" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A45" s="57">
         <v>44</v>
       </c>
@@ -10770,7 +10770,7 @@
         <v>0.00</v>
       </c>
     </row>
-    <row r="46" spans="1:68" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A46" s="57">
         <v>45</v>
       </c>
@@ -10969,7 +10969,7 @@
         <v>0.00</v>
       </c>
     </row>
-    <row r="47" spans="1:68" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A47" s="57">
         <v>46</v>
       </c>
@@ -11171,7 +11171,7 @@
         <v>0.00</v>
       </c>
     </row>
-    <row r="48" spans="1:68" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A48" s="57">
         <v>47</v>
       </c>
@@ -11372,7 +11372,7 @@
         <v>0.00</v>
       </c>
     </row>
-    <row r="49" spans="1:68" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A49" s="57">
         <v>48</v>
       </c>
@@ -11569,7 +11569,7 @@
         <v>0.00</v>
       </c>
     </row>
-    <row r="50" spans="1:68" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A50" s="57">
         <v>49</v>
       </c>
@@ -11771,7 +11771,7 @@
         <v>0.00</v>
       </c>
     </row>
-    <row r="51" spans="1:68" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A51" s="57">
         <v>50</v>
       </c>
@@ -11972,7 +11972,7 @@
         <v>0.00</v>
       </c>
     </row>
-    <row r="52" spans="1:68" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A52" s="57">
         <v>51</v>
       </c>
@@ -12173,7 +12173,7 @@
         <v>0.00</v>
       </c>
     </row>
-    <row r="53" spans="1:68" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A53" s="57">
         <v>52</v>
       </c>
@@ -12374,7 +12374,7 @@
         <v>0.00</v>
       </c>
     </row>
-    <row r="54" spans="1:68" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A54" s="57">
         <v>53</v>
       </c>
@@ -12575,7 +12575,7 @@
         <v>0.00</v>
       </c>
     </row>
-    <row r="55" spans="1:68" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A55" s="57">
         <v>54</v>
       </c>
@@ -12774,7 +12774,7 @@
         <v>0.00</v>
       </c>
     </row>
-    <row r="56" spans="1:68" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A56" s="57">
         <v>55</v>
       </c>
@@ -12975,7 +12975,7 @@
         <v>0.00</v>
       </c>
     </row>
-    <row r="57" spans="1:68" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A57" s="57">
         <v>56</v>
       </c>
@@ -13179,7 +13179,7 @@
         <v>0.00</v>
       </c>
     </row>
-    <row r="58" spans="1:68" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A58" s="57">
         <v>57</v>
       </c>
@@ -13378,7 +13378,7 @@
         <v>0.00</v>
       </c>
     </row>
-    <row r="59" spans="1:68" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A59" s="57">
         <v>58</v>
       </c>
@@ -13577,7 +13577,7 @@
         <v>0.00</v>
       </c>
     </row>
-    <row r="60" spans="1:68" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A60" s="57">
         <v>59</v>
       </c>
@@ -13781,7 +13781,7 @@
         <v>0.00</v>
       </c>
     </row>
-    <row r="61" spans="1:68" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A61" s="57">
         <v>60</v>
       </c>
@@ -13978,7 +13978,7 @@
         <v>0.00</v>
       </c>
     </row>
-    <row r="62" spans="1:68" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A62" s="57">
         <v>61</v>
       </c>
@@ -14180,7 +14180,7 @@
         <v>0.00</v>
       </c>
     </row>
-    <row r="63" spans="1:68" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A63" s="57">
         <v>62</v>
       </c>
@@ -14381,7 +14381,7 @@
         <v>0.00</v>
       </c>
     </row>
-    <row r="64" spans="1:68" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A64" s="57">
         <v>63</v>
       </c>
@@ -14582,7 +14582,7 @@
         <v>0.00</v>
       </c>
     </row>
-    <row r="65" spans="1:68" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A65" s="57">
         <v>64</v>
       </c>
@@ -14781,7 +14781,7 @@
         <v>0.00</v>
       </c>
     </row>
-    <row r="66" spans="1:68" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A66" s="57">
         <v>65</v>
       </c>
@@ -14982,7 +14982,7 @@
         <v>0.00</v>
       </c>
     </row>
-    <row r="67" spans="1:68" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A67" s="57">
         <v>66</v>
       </c>
@@ -15183,7 +15183,7 @@
         <v>0.00</v>
       </c>
     </row>
-    <row r="68" spans="1:68" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A68" s="57">
         <v>67</v>
       </c>
@@ -15380,7 +15380,7 @@
         <v>0.00</v>
       </c>
     </row>
-    <row r="69" spans="1:68" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A69" s="57">
         <v>68</v>
       </c>
@@ -15584,7 +15584,7 @@
         <v>0.00</v>
       </c>
     </row>
-    <row r="70" spans="1:68" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A70" s="57">
         <v>69</v>
       </c>
@@ -15783,7 +15783,7 @@
         <v>0.00</v>
       </c>
     </row>
-    <row r="71" spans="1:68" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A71" s="57">
         <v>70</v>
       </c>
@@ -15982,7 +15982,7 @@
         <v>0.00</v>
       </c>
     </row>
-    <row r="72" spans="1:68" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A72" s="57">
         <v>71</v>
       </c>
@@ -16181,7 +16181,7 @@
         <v>0.00</v>
       </c>
     </row>
-    <row r="73" spans="1:68" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A73" s="57">
         <v>72</v>
       </c>
@@ -16380,7 +16380,7 @@
         <v>0.00</v>
       </c>
     </row>
-    <row r="74" spans="1:68" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A74" s="57">
         <v>73</v>
       </c>
@@ -16582,7 +16582,7 @@
         <v>0.00</v>
       </c>
     </row>
-    <row r="75" spans="1:68" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A75" s="57">
         <v>74</v>
       </c>
@@ -16786,7 +16786,7 @@
         <v>0.00</v>
       </c>
     </row>
-    <row r="76" spans="1:68" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A76" s="57">
         <v>75</v>
       </c>
@@ -16983,7 +16983,7 @@
         <v>0.00</v>
       </c>
     </row>
-    <row r="77" spans="1:68" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A77" s="57">
         <v>76</v>
       </c>
@@ -17187,7 +17187,7 @@
         <v>0.00</v>
       </c>
     </row>
-    <row r="78" spans="1:68" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A78" s="57">
         <v>77</v>
       </c>
@@ -17386,7 +17386,7 @@
         <v>0.00</v>
       </c>
     </row>
-    <row r="79" spans="1:68" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A79" s="57">
         <v>78</v>
       </c>
@@ -17585,7 +17585,7 @@
         <v>0.00</v>
       </c>
     </row>
-    <row r="80" spans="1:68" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A80" s="57">
         <v>79</v>
       </c>
@@ -17785,7 +17785,7 @@
         <v>0.00</v>
       </c>
     </row>
-    <row r="81" spans="1:68" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A81" s="57">
         <v>80</v>
       </c>
@@ -17989,7 +17989,7 @@
         <v>0.00</v>
       </c>
     </row>
-    <row r="82" spans="1:68" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A82" s="57">
         <v>81</v>
       </c>
@@ -18189,7 +18189,7 @@
         <v>0.00</v>
       </c>
     </row>
-    <row r="83" spans="1:68" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A83" s="57">
         <v>82</v>
       </c>
@@ -18371,7 +18371,7 @@
         <v>0.00</v>
       </c>
     </row>
-    <row r="84" spans="1:68" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A84" s="57">
         <v>83</v>
       </c>
@@ -18554,7 +18554,7 @@
         <v>0.00</v>
       </c>
     </row>
-    <row r="85" spans="1:68" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A85" s="57">
         <v>84</v>
       </c>
@@ -18733,7 +18733,7 @@
         <v>0.00</v>
       </c>
     </row>
-    <row r="86" spans="1:68" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A86" s="57">
         <v>85</v>
       </c>
@@ -18917,7 +18917,7 @@
         <v>0.00</v>
       </c>
     </row>
-    <row r="87" spans="1:68" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A87" s="57">
         <v>86</v>
       </c>
@@ -19098,7 +19098,7 @@
         <v>0.00</v>
       </c>
     </row>
-    <row r="88" spans="1:68" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A88" s="57">
         <v>87</v>
       </c>
@@ -19279,7 +19279,7 @@
         <v>0.00</v>
       </c>
     </row>
-    <row r="89" spans="1:68" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A89" s="57">
         <v>88</v>
       </c>
@@ -19458,7 +19458,7 @@
         <v>0.00</v>
       </c>
     </row>
-    <row r="90" spans="1:68" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A90" s="57">
         <v>89</v>
       </c>
@@ -19639,7 +19639,7 @@
         <v>0.00</v>
       </c>
     </row>
-    <row r="91" spans="1:68" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A91" s="57">
         <v>90</v>
       </c>
@@ -19818,7 +19818,7 @@
         <v>0.00</v>
       </c>
     </row>
-    <row r="92" spans="1:68" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A92" s="57">
         <v>91</v>
       </c>
@@ -19997,7 +19997,7 @@
         <v>0.00</v>
       </c>
     </row>
-    <row r="93" spans="1:68" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A93" s="57">
         <v>92</v>
       </c>
@@ -20178,7 +20178,7 @@
         <v>0.00</v>
       </c>
     </row>
-    <row r="94" spans="1:68" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A94" s="57">
         <v>93</v>
       </c>
@@ -20358,7 +20358,7 @@
         <v>0.00</v>
       </c>
     </row>
-    <row r="95" spans="1:68" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A95" s="57">
         <v>94</v>
       </c>
@@ -20541,7 +20541,7 @@
         <v>0.00</v>
       </c>
     </row>
-    <row r="96" spans="1:68" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A96" s="57">
         <v>95</v>
       </c>
@@ -20722,7 +20722,7 @@
         <v>0.00</v>
       </c>
     </row>
-    <row r="97" spans="1:68" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A97" s="57">
         <v>96</v>
       </c>
@@ -20899,7 +20899,7 @@
         <v>0.00</v>
       </c>
     </row>
-    <row r="98" spans="1:68" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A98" s="57">
         <v>97</v>
       </c>
@@ -21080,7 +21080,7 @@
         <v>0.00</v>
       </c>
     </row>
-    <row r="99" spans="1:68" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A99" s="57">
         <v>98</v>
       </c>
@@ -21261,7 +21261,7 @@
         <v>0.00</v>
       </c>
     </row>
-    <row r="100" spans="1:68" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A100" s="57">
         <v>99</v>
       </c>
@@ -21443,7 +21443,7 @@
         <v>0.00</v>
       </c>
     </row>
-    <row r="101" spans="1:68" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A101" s="57">
         <v>100</v>
       </c>
@@ -21620,7 +21620,7 @@
         <v>0.00</v>
       </c>
     </row>
-    <row r="102" spans="1:68" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A102" s="57">
         <v>101</v>
       </c>
@@ -21801,7 +21801,7 @@
         <v>0.00</v>
       </c>
     </row>
-    <row r="103" spans="1:68" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A103" s="57">
         <v>102</v>
       </c>
@@ -21978,7 +21978,7 @@
         <v>0.00</v>
       </c>
     </row>
-    <row r="104" spans="1:68" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A104" s="57">
         <v>103</v>
       </c>
@@ -22161,7 +22161,7 @@
         <v>0.00</v>
       </c>
     </row>
-    <row r="105" spans="1:68" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A105" s="57">
         <v>104</v>
       </c>
@@ -22340,7 +22340,7 @@
         <v>0.00</v>
       </c>
     </row>
-    <row r="106" spans="1:68" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A106" s="57">
         <v>105</v>
       </c>
@@ -22523,7 +22523,7 @@
         <v>0.00</v>
       </c>
     </row>
-    <row r="107" spans="1:68" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A107" s="57">
         <v>106</v>
       </c>
@@ -22704,7 +22704,7 @@
         <v>0.00</v>
       </c>
     </row>
-    <row r="108" spans="1:68" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A108" s="57">
         <v>107</v>
       </c>
@@ -22885,7 +22885,7 @@
         <v>0.00</v>
       </c>
     </row>
-    <row r="109" spans="1:68" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A109" s="57">
         <v>108</v>
       </c>
@@ -23068,7 +23068,7 @@
         <v>0.00</v>
       </c>
     </row>
-    <row r="110" spans="1:68" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A110" s="57">
         <v>109</v>
       </c>
@@ -23252,7 +23252,7 @@
         <v>0.00</v>
       </c>
     </row>
-    <row r="111" spans="1:68" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A111" s="57">
         <v>110</v>
       </c>
@@ -23431,7 +23431,7 @@
         <v>0.00</v>
       </c>
     </row>
-    <row r="112" spans="1:68" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A112" s="57">
         <v>111</v>
       </c>
@@ -23612,7 +23612,7 @@
         <v>0.00</v>
       </c>
     </row>
-    <row r="113" spans="1:68" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A113" s="57">
         <v>112</v>
       </c>
@@ -23795,7 +23795,7 @@
         <v>0.00</v>
       </c>
     </row>
-    <row r="114" spans="1:68" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A114" s="57">
         <v>113</v>
       </c>
@@ -23979,7 +23979,7 @@
         <v>0.00</v>
       </c>
     </row>
-    <row r="115" spans="1:68" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A115" s="57">
         <v>114</v>
       </c>
@@ -24163,7 +24163,7 @@
         <v>0.00</v>
       </c>
     </row>
-    <row r="116" spans="1:68" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A116" s="57">
         <v>115</v>
       </c>
@@ -24344,7 +24344,7 @@
         <v>0.00</v>
       </c>
     </row>
-    <row r="117" spans="1:68" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A117" s="57">
         <v>116</v>
       </c>
@@ -24523,7 +24523,7 @@
         <v>0.00</v>
       </c>
     </row>
-    <row r="118" spans="1:68" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A118" s="57">
         <v>117</v>
       </c>
@@ -24704,7 +24704,7 @@
         <v>0.00</v>
       </c>
     </row>
-    <row r="119" spans="1:68" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A119" s="57">
         <v>118</v>
       </c>
@@ -24887,7 +24887,7 @@
         <v>0.00</v>
       </c>
     </row>
-    <row r="120" spans="1:68" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A120" s="57">
         <v>119</v>
       </c>
@@ -25068,7 +25068,7 @@
         <v>0.00</v>
       </c>
     </row>
-    <row r="121" spans="1:68" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A121" s="57">
         <v>120</v>
       </c>
@@ -25249,7 +25249,7 @@
         <v>0.00</v>
       </c>
     </row>
-    <row r="122" spans="1:68" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A122" s="57">
         <v>121</v>
       </c>
@@ -25432,7 +25432,7 @@
         <v>0.00</v>
       </c>
     </row>
-    <row r="123" spans="1:68" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A123" s="57">
         <v>122</v>
       </c>
@@ -25615,7 +25615,7 @@
         <v>0.00</v>
       </c>
     </row>
-    <row r="124" spans="1:68" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A124" s="57">
         <v>123</v>
       </c>
@@ -25798,7 +25798,7 @@
         <v>0.00</v>
       </c>
     </row>
-    <row r="125" spans="1:68" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A125" s="57">
         <v>124</v>
       </c>
@@ -25979,7 +25979,7 @@
         <v>0.00</v>
       </c>
     </row>
-    <row r="126" spans="1:68" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A126" s="57">
         <v>125</v>
       </c>
@@ -26158,7 +26158,7 @@
         <v>0.00</v>
       </c>
     </row>
-    <row r="127" spans="1:68" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A127" s="57">
         <v>126</v>
       </c>
@@ -26339,7 +26339,7 @@
         <v>0.00</v>
       </c>
     </row>
-    <row r="128" spans="1:68" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A128" s="57">
         <v>127</v>
       </c>
@@ -26522,7 +26522,7 @@
         <v>0.00</v>
       </c>
     </row>
-    <row r="129" spans="1:68" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A129" s="57">
         <v>128</v>
       </c>
@@ -26705,7 +26705,7 @@
         <v>0.00</v>
       </c>
     </row>
-    <row r="130" spans="1:68" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A130" s="57">
         <v>129</v>
       </c>
@@ -26886,7 +26886,7 @@
         <v>0.00</v>
       </c>
     </row>
-    <row r="131" spans="1:68" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A131" s="57">
         <v>130</v>
       </c>
@@ -27067,7 +27067,7 @@
         <v>0.00</v>
       </c>
     </row>
-    <row r="132" spans="1:68" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A132" s="57">
         <v>131</v>
       </c>
@@ -27250,7 +27250,7 @@
         <v>0.00</v>
       </c>
     </row>
-    <row r="133" spans="1:68" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A133" s="57">
         <v>132</v>
       </c>
@@ -27431,7 +27431,7 @@
         <v>0.00</v>
       </c>
     </row>
-    <row r="134" spans="1:68" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A134" s="57">
         <v>133</v>
       </c>
@@ -27612,7 +27612,7 @@
         <v>0.00</v>
       </c>
     </row>
-    <row r="135" spans="1:68" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A135" s="57">
         <v>134</v>
       </c>
@@ -27791,7 +27791,7 @@
         <v>0.00</v>
       </c>
     </row>
-    <row r="136" spans="1:68" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A136" s="57">
         <v>135</v>
       </c>
@@ -27970,7 +27970,7 @@
         <v>0.00</v>
       </c>
     </row>
-    <row r="137" spans="1:68" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A137" s="57">
         <v>136</v>
       </c>
@@ -28151,7 +28151,7 @@
         <v>0.00</v>
       </c>
     </row>
-    <row r="138" spans="1:68" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A138" s="57">
         <v>137</v>
       </c>
@@ -28332,7 +28332,7 @@
         <v>0.00</v>
       </c>
     </row>
-    <row r="139" spans="1:68" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A139" s="57">
         <v>138</v>
       </c>
@@ -28513,7 +28513,7 @@
         <v>0.00</v>
       </c>
     </row>
-    <row r="140" spans="1:68" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A140" s="57">
         <v>139</v>
       </c>
@@ -28692,7 +28692,7 @@
         <v>0.00</v>
       </c>
     </row>
-    <row r="141" spans="1:68" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A141" s="57">
         <v>140</v>
       </c>
@@ -28873,7 +28873,7 @@
         <v>0.00</v>
       </c>
     </row>
-    <row r="142" spans="1:68" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A142" s="57">
         <v>141</v>
       </c>
@@ -29054,7 +29054,7 @@
         <v>0.00</v>
       </c>
     </row>
-    <row r="143" spans="1:68" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A143" s="57">
         <v>142</v>
       </c>
@@ -29233,7 +29233,7 @@
         <v>0.00</v>
       </c>
     </row>
-    <row r="144" spans="1:68" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A144" s="57">
         <v>143</v>
       </c>
@@ -29412,7 +29412,7 @@
         <v>0.00</v>
       </c>
     </row>
-    <row r="145" spans="1:68" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A145" s="57">
         <v>144</v>
       </c>
@@ -29593,7 +29593,7 @@
         <v>0.00</v>
       </c>
     </row>
-    <row r="146" spans="1:68" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A146" s="57">
         <v>145</v>
       </c>
@@ -29777,7 +29777,7 @@
         <v>0.00</v>
       </c>
     </row>
-    <row r="147" spans="1:68" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A147" s="57">
         <v>146</v>
       </c>
@@ -29956,7 +29956,7 @@
         <v>0.00</v>
       </c>
     </row>
-    <row r="148" spans="1:68" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A148" s="57">
         <v>147</v>
       </c>
@@ -30140,7 +30140,7 @@
         <v>0.00</v>
       </c>
     </row>
-    <row r="149" spans="1:68" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A149" s="57">
         <v>148</v>
       </c>
@@ -30319,7 +30319,7 @@
         <v>0.00</v>
       </c>
     </row>
-    <row r="150" spans="1:68" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A150" s="57">
         <v>149</v>
       </c>
@@ -30503,7 +30503,7 @@
         <v>0.00</v>
       </c>
     </row>
-    <row r="151" spans="1:68" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A151" s="57">
         <v>150</v>
       </c>
@@ -30686,7 +30686,7 @@
         <v>0.00</v>
       </c>
     </row>
-    <row r="152" spans="1:68" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A152" s="57">
         <v>151</v>
       </c>
@@ -30865,7 +30865,7 @@
         <v>0.00</v>
       </c>
     </row>
-    <row r="153" spans="1:68" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A153" s="57">
         <v>152</v>
       </c>
@@ -31049,7 +31049,7 @@
         <v>0.00</v>
       </c>
     </row>
-    <row r="154" spans="1:68" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A154" s="57">
         <v>153</v>
       </c>
@@ -31228,7 +31228,7 @@
         <v>0.00</v>
       </c>
     </row>
-    <row r="155" spans="1:68" x14ac:dyDescent="0.35">
+    <row r="155" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A155" s="57">
         <v>154</v>
       </c>
@@ -31409,7 +31409,7 @@
         <v>0.00</v>
       </c>
     </row>
-    <row r="156" spans="1:68" x14ac:dyDescent="0.35">
+    <row r="156" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A156" s="57">
         <v>155</v>
       </c>
@@ -31595,7 +31595,7 @@
         <v>0.00</v>
       </c>
     </row>
-    <row r="157" spans="1:68" x14ac:dyDescent="0.35">
+    <row r="157" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A157" s="57">
         <v>156</v>
       </c>
@@ -31778,7 +31778,7 @@
         <v>0.00</v>
       </c>
     </row>
-    <row r="158" spans="1:68" x14ac:dyDescent="0.35">
+    <row r="158" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A158" s="57">
         <v>157</v>
       </c>
@@ -31962,7 +31962,7 @@
         <v>0.00</v>
       </c>
     </row>
-    <row r="159" spans="1:68" x14ac:dyDescent="0.35">
+    <row r="159" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A159" s="57">
         <v>158</v>
       </c>
@@ -32143,7 +32143,7 @@
         <v>0.00</v>
       </c>
     </row>
-    <row r="160" spans="1:68" x14ac:dyDescent="0.35">
+    <row r="160" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A160" s="57">
         <v>159</v>
       </c>
@@ -32329,7 +32329,7 @@
         <v>0.00</v>
       </c>
     </row>
-    <row r="161" spans="1:68" x14ac:dyDescent="0.35">
+    <row r="161" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A161" s="57">
         <v>160</v>
       </c>
@@ -32512,7 +32512,7 @@
         <v>0.00</v>
       </c>
     </row>
-    <row r="162" spans="1:68" x14ac:dyDescent="0.35">
+    <row r="162" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A162" s="57">
         <v>161</v>
       </c>
@@ -32691,7 +32691,7 @@
         <v>0.00</v>
       </c>
     </row>
-    <row r="163" spans="1:68" x14ac:dyDescent="0.35">
+    <row r="163" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A163" s="57">
         <v>162</v>
       </c>
@@ -32874,7 +32874,7 @@
         <v>0.00</v>
       </c>
     </row>
-    <row r="164" spans="1:68" x14ac:dyDescent="0.35">
+    <row r="164" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A164" s="57">
         <v>163</v>
       </c>
@@ -33055,7 +33055,7 @@
         <v>0.00</v>
       </c>
     </row>
-    <row r="165" spans="1:68" x14ac:dyDescent="0.35">
+    <row r="165" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A165" s="57">
         <v>164</v>
       </c>
@@ -33236,7 +33236,7 @@
         <v>0.00</v>
       </c>
     </row>
-    <row r="166" spans="1:68" x14ac:dyDescent="0.35">
+    <row r="166" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A166" s="57">
         <v>165</v>
       </c>
@@ -33415,7 +33415,7 @@
         <v>0.00</v>
       </c>
     </row>
-    <row r="167" spans="1:68" x14ac:dyDescent="0.35">
+    <row r="167" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A167" s="57">
         <v>166</v>
       </c>
@@ -33596,7 +33596,7 @@
         <v>0.00</v>
       </c>
     </row>
-    <row r="168" spans="1:68" x14ac:dyDescent="0.35">
+    <row r="168" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A168" s="57">
         <v>167</v>
       </c>
@@ -33780,7 +33780,7 @@
         <v>0.00</v>
       </c>
     </row>
-    <row r="169" spans="1:68" x14ac:dyDescent="0.35">
+    <row r="169" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A169" s="57">
         <v>168</v>
       </c>
@@ -33963,7 +33963,7 @@
         <v>0.00</v>
       </c>
     </row>
-    <row r="170" spans="1:68" x14ac:dyDescent="0.35">
+    <row r="170" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A170" s="57">
         <v>169</v>
       </c>
@@ -34149,7 +34149,7 @@
         <v>0.00</v>
       </c>
     </row>
-    <row r="171" spans="1:68" x14ac:dyDescent="0.35">
+    <row r="171" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A171" s="57">
         <v>170</v>
       </c>
@@ -34335,7 +34335,7 @@
         <v>0.00</v>
       </c>
     </row>
-    <row r="172" spans="1:68" x14ac:dyDescent="0.35">
+    <row r="172" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A172" s="57">
         <v>171</v>
       </c>
@@ -34514,7 +34514,7 @@
         <v>0.00</v>
       </c>
     </row>
-    <row r="173" spans="1:68" x14ac:dyDescent="0.35">
+    <row r="173" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A173" s="57">
         <v>172</v>
       </c>
@@ -34693,7 +34693,7 @@
         <v>0.00</v>
       </c>
     </row>
-    <row r="174" spans="1:68" x14ac:dyDescent="0.35">
+    <row r="174" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A174" s="57">
         <v>173</v>
       </c>
@@ -34877,7 +34877,7 @@
         <v>0.00</v>
       </c>
     </row>
-    <row r="175" spans="1:68" x14ac:dyDescent="0.35">
+    <row r="175" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A175" s="57">
         <v>174</v>
       </c>
@@ -35058,7 +35058,7 @@
         <v>0.00</v>
       </c>
     </row>
-    <row r="176" spans="1:68" x14ac:dyDescent="0.35">
+    <row r="176" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A176" s="57">
         <v>175</v>
       </c>
@@ -35239,7 +35239,7 @@
         <v>0.00</v>
       </c>
     </row>
-    <row r="177" spans="1:68" x14ac:dyDescent="0.35">
+    <row r="177" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A177" s="57">
         <v>176</v>
       </c>
@@ -35418,7 +35418,7 @@
         <v>0.00</v>
       </c>
     </row>
-    <row r="178" spans="1:68" x14ac:dyDescent="0.35">
+    <row r="178" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A178" s="57">
         <v>177</v>
       </c>
@@ -35599,7 +35599,7 @@
         <v>0.00</v>
       </c>
     </row>
-    <row r="179" spans="1:68" x14ac:dyDescent="0.35">
+    <row r="179" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A179" s="57">
         <v>178</v>
       </c>
@@ -35778,7 +35778,7 @@
         <v>0.00</v>
       </c>
     </row>
-    <row r="180" spans="1:68" x14ac:dyDescent="0.35">
+    <row r="180" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A180" s="57">
         <v>179</v>
       </c>
@@ -35962,7 +35962,7 @@
         <v>0.00</v>
       </c>
     </row>
-    <row r="181" spans="1:68" x14ac:dyDescent="0.35">
+    <row r="181" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A181" s="57">
         <v>180</v>
       </c>
@@ -36143,7 +36143,7 @@
         <v>0.00</v>
       </c>
     </row>
-    <row r="182" spans="1:68" x14ac:dyDescent="0.35">
+    <row r="182" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A182" s="57">
         <v>181</v>
       </c>
@@ -36324,7 +36324,7 @@
         <v>0.00</v>
       </c>
     </row>
-    <row r="183" spans="1:68" x14ac:dyDescent="0.35">
+    <row r="183" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A183" s="57">
         <v>182</v>
       </c>
@@ -36505,7 +36505,7 @@
         <v>0.00</v>
       </c>
     </row>
-    <row r="184" spans="1:68" x14ac:dyDescent="0.35">
+    <row r="184" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A184" s="57">
         <v>183</v>
       </c>
@@ -36686,7 +36686,7 @@
         <v>0.00</v>
       </c>
     </row>
-    <row r="185" spans="1:68" x14ac:dyDescent="0.35">
+    <row r="185" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A185" s="57">
         <v>184</v>
       </c>
@@ -36869,7 +36869,7 @@
         <v>0.00</v>
       </c>
     </row>
-    <row r="186" spans="1:68" x14ac:dyDescent="0.35">
+    <row r="186" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A186" s="57">
         <v>185</v>
       </c>
@@ -37055,7 +37055,7 @@
         <v>0.00</v>
       </c>
     </row>
-    <row r="187" spans="1:68" x14ac:dyDescent="0.35">
+    <row r="187" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A187" s="57">
         <v>186</v>
       </c>
@@ -37239,7 +37239,7 @@
         <v>0.00</v>
       </c>
     </row>
-    <row r="188" spans="1:68" x14ac:dyDescent="0.35">
+    <row r="188" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A188" s="57">
         <v>187</v>
       </c>
@@ -37420,7 +37420,7 @@
         <v>0.00</v>
       </c>
     </row>
-    <row r="189" spans="1:68" x14ac:dyDescent="0.35">
+    <row r="189" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A189" s="57">
         <v>188</v>
       </c>
@@ -37601,7 +37601,7 @@
         <v>0.00</v>
       </c>
     </row>
-    <row r="190" spans="1:68" x14ac:dyDescent="0.35">
+    <row r="190" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A190" s="57">
         <v>189</v>
       </c>
@@ -37784,7 +37784,7 @@
         <v>0.00</v>
       </c>
     </row>
-    <row r="191" spans="1:68" x14ac:dyDescent="0.35">
+    <row r="191" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A191" s="57">
         <v>190</v>
       </c>
@@ -37970,7 +37970,7 @@
         <v>0.00</v>
       </c>
     </row>
-    <row r="192" spans="1:68" x14ac:dyDescent="0.35">
+    <row r="192" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A192" s="57">
         <v>191</v>
       </c>
@@ -38151,7 +38151,7 @@
         <v>0.00</v>
       </c>
     </row>
-    <row r="193" spans="1:68" x14ac:dyDescent="0.35">
+    <row r="193" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A193" s="57">
         <v>192</v>
       </c>
@@ -38332,7 +38332,7 @@
         <v>0.00</v>
       </c>
     </row>
-    <row r="194" spans="1:68" x14ac:dyDescent="0.35">
+    <row r="194" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A194" s="57">
         <v>193</v>
       </c>
@@ -38516,7 +38516,7 @@
         <v>0.00</v>
       </c>
     </row>
-    <row r="195" spans="1:68" x14ac:dyDescent="0.35">
+    <row r="195" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A195" s="57">
         <v>194</v>
       </c>
@@ -38700,7 +38700,7 @@
         <v>0.00</v>
       </c>
     </row>
-    <row r="196" spans="1:68" x14ac:dyDescent="0.35">
+    <row r="196" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A196" s="57">
         <v>195</v>
       </c>
@@ -38879,7 +38879,7 @@
         <v>0.00</v>
       </c>
     </row>
-    <row r="197" spans="1:68" x14ac:dyDescent="0.35">
+    <row r="197" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A197" s="57">
         <v>196</v>
       </c>
@@ -39065,7 +39065,7 @@
         <v>0.00</v>
       </c>
     </row>
-    <row r="198" spans="1:68" x14ac:dyDescent="0.35">
+    <row r="198" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A198" s="57">
         <v>197</v>
       </c>
@@ -39246,7 +39246,7 @@
         <v>0.00</v>
       </c>
     </row>
-    <row r="199" spans="1:68" x14ac:dyDescent="0.35">
+    <row r="199" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A199" s="57">
         <v>198</v>
       </c>
@@ -39427,7 +39427,7 @@
         <v>0.00</v>
       </c>
     </row>
-    <row r="200" spans="1:68" x14ac:dyDescent="0.35">
+    <row r="200" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A200" s="57">
         <v>199</v>
       </c>
@@ -39606,7 +39606,7 @@
         <v>0.00</v>
       </c>
     </row>
-    <row r="201" spans="1:68" x14ac:dyDescent="0.35">
+    <row r="201" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A201" s="57">
         <v>200</v>
       </c>
@@ -39787,7 +39787,7 @@
         <v>0.00</v>
       </c>
     </row>
-    <row r="202" spans="1:68" x14ac:dyDescent="0.35">
+    <row r="202" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A202" s="57">
         <v>201</v>
       </c>
@@ -39970,7 +39970,7 @@
         <v>0.00</v>
       </c>
     </row>
-    <row r="203" spans="1:68" x14ac:dyDescent="0.35">
+    <row r="203" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A203" s="57">
         <v>202</v>
       </c>
@@ -40151,7 +40151,7 @@
         <v>0.00</v>
       </c>
     </row>
-    <row r="204" spans="1:68" x14ac:dyDescent="0.35">
+    <row r="204" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A204" s="57">
         <v>203</v>
       </c>
@@ -40332,7 +40332,7 @@
         <v>0.00</v>
       </c>
     </row>
-    <row r="205" spans="1:68" x14ac:dyDescent="0.35">
+    <row r="205" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A205" s="57">
         <v>204</v>
       </c>
@@ -40518,7 +40518,7 @@
         <v>0.00</v>
       </c>
     </row>
-    <row r="206" spans="1:68" x14ac:dyDescent="0.35">
+    <row r="206" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A206" s="57">
         <v>205</v>
       </c>
@@ -40702,7 +40702,7 @@
         <v>0.00</v>
       </c>
     </row>
-    <row r="207" spans="1:68" x14ac:dyDescent="0.35">
+    <row r="207" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A207" s="57">
         <v>206</v>
       </c>
@@ -40883,7 +40883,7 @@
         <v>0.00</v>
       </c>
     </row>
-    <row r="208" spans="1:68" x14ac:dyDescent="0.35">
+    <row r="208" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A208" s="57">
         <v>207</v>
       </c>
@@ -41066,7 +41066,7 @@
         <v>0.00</v>
       </c>
     </row>
-    <row r="209" spans="1:68" x14ac:dyDescent="0.35">
+    <row r="209" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A209" s="57">
         <v>208</v>
       </c>
@@ -41249,7 +41249,7 @@
         <v>0.00</v>
       </c>
     </row>
-    <row r="210" spans="1:68" x14ac:dyDescent="0.35">
+    <row r="210" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A210" s="57">
         <v>209</v>
       </c>
@@ -41430,7 +41430,7 @@
         <v>0.00</v>
       </c>
     </row>
-    <row r="211" spans="1:68" x14ac:dyDescent="0.35">
+    <row r="211" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A211" s="57">
         <v>210</v>
       </c>
@@ -41611,7 +41611,7 @@
         <v>0.055</v>
       </c>
     </row>
-    <row r="212" spans="1:68" x14ac:dyDescent="0.35">
+    <row r="212" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A212" s="57">
         <v>211</v>
       </c>
@@ -41792,7 +41792,7 @@
         <v>0.00</v>
       </c>
     </row>
-    <row r="213" spans="1:68" x14ac:dyDescent="0.35">
+    <row r="213" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A213" s="57">
         <v>212</v>
       </c>
@@ -41971,7 +41971,7 @@
         <v>0.00</v>
       </c>
     </row>
-    <row r="214" spans="1:68" x14ac:dyDescent="0.35">
+    <row r="214" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A214" s="57">
         <v>213</v>
       </c>
@@ -42152,7 +42152,7 @@
         <v>0.00</v>
       </c>
     </row>
-    <row r="215" spans="1:68" x14ac:dyDescent="0.35">
+    <row r="215" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A215" s="57">
         <v>214</v>
       </c>
@@ -42333,7 +42333,7 @@
         <v>0.00</v>
       </c>
     </row>
-    <row r="216" spans="1:68" x14ac:dyDescent="0.35">
+    <row r="216" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A216" s="57">
         <v>215</v>
       </c>
@@ -42516,7 +42516,7 @@
         <v>0.00</v>
       </c>
     </row>
-    <row r="217" spans="1:68" x14ac:dyDescent="0.35">
+    <row r="217" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A217" s="57">
         <v>216</v>
       </c>
@@ -42697,7 +42697,7 @@
         <v>0.00</v>
       </c>
     </row>
-    <row r="218" spans="1:68" x14ac:dyDescent="0.35">
+    <row r="218" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A218" s="57">
         <v>217</v>
       </c>
@@ -42876,7 +42876,7 @@
         <v>0.00</v>
       </c>
     </row>
-    <row r="219" spans="1:68" x14ac:dyDescent="0.35">
+    <row r="219" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A219" s="57">
         <v>218</v>
       </c>
@@ -43062,7 +43062,7 @@
         <v>0.00</v>
       </c>
     </row>
-    <row r="220" spans="1:68" x14ac:dyDescent="0.35">
+    <row r="220" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A220" s="57">
         <v>219</v>
       </c>
@@ -43243,7 +43243,7 @@
         <v>0.00</v>
       </c>
     </row>
-    <row r="221" spans="1:68" x14ac:dyDescent="0.35">
+    <row r="221" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A221" s="57">
         <v>220</v>
       </c>
@@ -43425,7 +43425,7 @@
         <v>0.00</v>
       </c>
     </row>
-    <row r="222" spans="1:68" x14ac:dyDescent="0.35">
+    <row r="222" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A222" s="57">
         <v>221</v>
       </c>
@@ -43608,7 +43608,7 @@
         <v>0.00</v>
       </c>
     </row>
-    <row r="223" spans="1:68" x14ac:dyDescent="0.35">
+    <row r="223" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A223" s="57">
         <v>222</v>
       </c>
@@ -43787,7 +43787,7 @@
         <v>0.00</v>
       </c>
     </row>
-    <row r="224" spans="1:68" x14ac:dyDescent="0.35">
+    <row r="224" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A224" s="57">
         <v>223</v>
       </c>
@@ -43968,7 +43968,7 @@
         <v>0.00</v>
       </c>
     </row>
-    <row r="225" spans="1:68" x14ac:dyDescent="0.35">
+    <row r="225" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A225" s="57">
         <v>224</v>
       </c>
@@ -44149,7 +44149,7 @@
         <v>0.00</v>
       </c>
     </row>
-    <row r="226" spans="1:68" x14ac:dyDescent="0.35">
+    <row r="226" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A226" s="57">
         <v>225</v>
       </c>
@@ -44332,7 +44332,7 @@
         <v>0.00</v>
       </c>
     </row>
-    <row r="227" spans="1:68" x14ac:dyDescent="0.35">
+    <row r="227" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A227" s="57">
         <v>226</v>
       </c>
@@ -44513,7 +44513,7 @@
         <v>0.00</v>
       </c>
     </row>
-    <row r="228" spans="1:68" x14ac:dyDescent="0.35">
+    <row r="228" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A228" s="57">
         <v>227</v>
       </c>
@@ -44694,7 +44694,7 @@
         <v>0.00</v>
       </c>
     </row>
-    <row r="229" spans="1:68" x14ac:dyDescent="0.35">
+    <row r="229" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A229" s="57">
         <v>228</v>
       </c>
@@ -44875,7 +44875,7 @@
         <v>0.00</v>
       </c>
     </row>
-    <row r="230" spans="1:68" x14ac:dyDescent="0.35">
+    <row r="230" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A230" s="57">
         <v>229</v>
       </c>
@@ -45056,7 +45056,7 @@
         <v>0.00</v>
       </c>
     </row>
-    <row r="231" spans="1:68" x14ac:dyDescent="0.35">
+    <row r="231" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A231" s="57">
         <v>230</v>
       </c>
@@ -45237,7 +45237,7 @@
         <v>0.00</v>
       </c>
     </row>
-    <row r="232" spans="1:68" x14ac:dyDescent="0.35">
+    <row r="232" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A232" s="57">
         <v>231</v>
       </c>
@@ -45420,7 +45420,7 @@
         <v>0.00</v>
       </c>
     </row>
-    <row r="233" spans="1:68" x14ac:dyDescent="0.35">
+    <row r="233" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A233" s="57">
         <v>232</v>
       </c>
@@ -45603,7 +45603,7 @@
         <v>0.00</v>
       </c>
     </row>
-    <row r="234" spans="1:68" x14ac:dyDescent="0.35">
+    <row r="234" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A234" s="57">
         <v>233</v>
       </c>
@@ -45786,7 +45786,7 @@
         <v>0.00</v>
       </c>
     </row>
-    <row r="235" spans="1:68" x14ac:dyDescent="0.35">
+    <row r="235" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A235" s="57">
         <v>234</v>
       </c>
@@ -45969,7 +45969,7 @@
         <v>0.00</v>
       </c>
     </row>
-    <row r="236" spans="1:68" x14ac:dyDescent="0.35">
+    <row r="236" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A236" s="57">
         <v>235</v>
       </c>
@@ -46150,7 +46150,7 @@
         <v>0.00</v>
       </c>
     </row>
-    <row r="237" spans="1:68" x14ac:dyDescent="0.35">
+    <row r="237" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A237" s="57">
         <v>236</v>
       </c>
@@ -46327,7 +46327,7 @@
         <v>0.00</v>
       </c>
     </row>
-    <row r="238" spans="1:68" x14ac:dyDescent="0.35">
+    <row r="238" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A238" s="57">
         <v>237</v>
       </c>
@@ -46506,7 +46506,7 @@
         <v>0.00</v>
       </c>
     </row>
-    <row r="239" spans="1:68" x14ac:dyDescent="0.35">
+    <row r="239" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A239" s="57">
         <v>238</v>
       </c>
@@ -46687,7 +46687,7 @@
         <v>0.00</v>
       </c>
     </row>
-    <row r="240" spans="1:68" x14ac:dyDescent="0.35">
+    <row r="240" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A240" s="57">
         <v>239</v>
       </c>
@@ -46870,7 +46870,7 @@
         <v>0.00</v>
       </c>
     </row>
-    <row r="241" spans="1:68" x14ac:dyDescent="0.35">
+    <row r="241" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A241" s="57">
         <v>240</v>
       </c>
@@ -47049,7 +47049,7 @@
         <v>0.00</v>
       </c>
     </row>
-    <row r="242" spans="1:68" x14ac:dyDescent="0.35">
+    <row r="242" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A242" s="57">
         <v>241</v>
       </c>
@@ -47230,7 +47230,7 @@
         <v>0.00</v>
       </c>
     </row>
-    <row r="243" spans="1:68" x14ac:dyDescent="0.35">
+    <row r="243" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A243" s="57">
         <v>242</v>
       </c>
@@ -47409,7 +47409,7 @@
         <v>0.00</v>
       </c>
     </row>
-    <row r="244" spans="1:68" x14ac:dyDescent="0.35">
+    <row r="244" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A244" s="57">
         <v>243</v>
       </c>
@@ -47590,7 +47590,7 @@
         <v>0.00</v>
       </c>
     </row>
-    <row r="245" spans="1:68" x14ac:dyDescent="0.35">
+    <row r="245" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A245" s="57">
         <v>244</v>
       </c>
@@ -47771,7 +47771,7 @@
         <v>0.00</v>
       </c>
     </row>
-    <row r="246" spans="1:68" x14ac:dyDescent="0.35">
+    <row r="246" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A246" s="57">
         <v>245</v>
       </c>
@@ -47952,7 +47952,7 @@
         <v>0.00</v>
       </c>
     </row>
-    <row r="247" spans="1:68" x14ac:dyDescent="0.35">
+    <row r="247" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A247" s="57">
         <v>246</v>
       </c>
@@ -48136,7 +48136,7 @@
         <v>0.00</v>
       </c>
     </row>
-    <row r="248" spans="1:68" x14ac:dyDescent="0.35">
+    <row r="248" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A248" s="57">
         <v>247</v>
       </c>
@@ -48317,7 +48317,7 @@
         <v>0.00</v>
       </c>
     </row>
-    <row r="249" spans="1:68" x14ac:dyDescent="0.35">
+    <row r="249" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A249" s="57">
         <v>248</v>
       </c>
@@ -48503,7 +48503,7 @@
         <v>0.00</v>
       </c>
     </row>
-    <row r="250" spans="1:68" x14ac:dyDescent="0.35">
+    <row r="250" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A250" s="57">
         <v>249</v>
       </c>
@@ -48684,7 +48684,7 @@
         <v>0.00</v>
       </c>
     </row>
-    <row r="251" spans="1:68" x14ac:dyDescent="0.35">
+    <row r="251" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A251" s="57">
         <v>250</v>
       </c>
@@ -48865,7 +48865,7 @@
         <v>0.00</v>
       </c>
     </row>
-    <row r="252" spans="1:68" x14ac:dyDescent="0.35">
+    <row r="252" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A252" s="57">
         <v>251</v>
       </c>
@@ -49046,7 +49046,7 @@
         <v>0.00</v>
       </c>
     </row>
-    <row r="253" spans="1:68" x14ac:dyDescent="0.35">
+    <row r="253" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A253" s="57">
         <v>252</v>
       </c>
@@ -49227,7 +49227,7 @@
         <v>0.00</v>
       </c>
     </row>
-    <row r="254" spans="1:68" x14ac:dyDescent="0.35">
+    <row r="254" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A254" s="57">
         <v>253</v>
       </c>
@@ -49426,7 +49426,7 @@
         <v>0.00</v>
       </c>
     </row>
-    <row r="255" spans="1:68" x14ac:dyDescent="0.35">
+    <row r="255" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A255" s="57">
         <v>254</v>
       </c>
@@ -49629,7 +49629,7 @@
         <v>0.00</v>
       </c>
     </row>
-    <row r="256" spans="1:68" x14ac:dyDescent="0.35">
+    <row r="256" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A256" s="57">
         <v>255</v>
       </c>
@@ -49828,7 +49828,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="257" spans="1:68" x14ac:dyDescent="0.35">
+    <row r="257" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A257" s="57">
         <v>256</v>
       </c>
@@ -50031,7 +50031,7 @@
         <v>0.00</v>
       </c>
     </row>
-    <row r="258" spans="1:68" x14ac:dyDescent="0.35">
+    <row r="258" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A258" s="57">
         <v>257</v>
       </c>
@@ -50230,7 +50230,7 @@
         <v>0.00</v>
       </c>
     </row>
-    <row r="259" spans="1:68" x14ac:dyDescent="0.35">
+    <row r="259" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A259" s="57">
         <v>258</v>
       </c>
@@ -50431,7 +50431,7 @@
         <v>0.00</v>
       </c>
     </row>
-    <row r="260" spans="1:68" x14ac:dyDescent="0.35">
+    <row r="260" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A260" s="57">
         <v>259</v>
       </c>
@@ -50632,7 +50632,7 @@
         <v>0.00</v>
       </c>
     </row>
-    <row r="261" spans="1:68" x14ac:dyDescent="0.35">
+    <row r="261" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A261" s="57">
         <v>260</v>
       </c>
@@ -50836,7 +50836,7 @@
         <v>0.00</v>
       </c>
     </row>
-    <row r="262" spans="1:68" x14ac:dyDescent="0.35">
+    <row r="262" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A262" s="57">
         <v>261</v>
       </c>
@@ -51039,7 +51039,7 @@
         <v>0.00</v>
       </c>
     </row>
-    <row r="263" spans="1:68" x14ac:dyDescent="0.35">
+    <row r="263" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A263" s="57">
         <v>262</v>
       </c>
@@ -51242,7 +51242,7 @@
         <v>0.00</v>
       </c>
     </row>
-    <row r="264" spans="1:68" x14ac:dyDescent="0.35">
+    <row r="264" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A264" s="57">
         <v>263</v>
       </c>
@@ -51441,7 +51441,7 @@
         <v>0.00</v>
       </c>
     </row>
-    <row r="265" spans="1:68" x14ac:dyDescent="0.35">
+    <row r="265" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A265" s="57">
         <v>264</v>
       </c>
@@ -51644,7 +51644,7 @@
         <v>0.00</v>
       </c>
     </row>
-    <row r="266" spans="1:68" x14ac:dyDescent="0.35">
+    <row r="266" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A266" s="57">
         <v>265</v>
       </c>
@@ -51845,7 +51845,7 @@
         <v>0.00</v>
       </c>
     </row>
-    <row r="267" spans="1:68" x14ac:dyDescent="0.35">
+    <row r="267" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A267" s="57">
         <v>266</v>
       </c>
@@ -52046,7 +52046,7 @@
         <v>0.00</v>
       </c>
     </row>
-    <row r="268" spans="1:68" x14ac:dyDescent="0.35">
+    <row r="268" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A268" s="57">
         <v>267</v>
       </c>
@@ -52247,7 +52247,7 @@
         <v>0.00</v>
       </c>
     </row>
-    <row r="269" spans="1:68" x14ac:dyDescent="0.35">
+    <row r="269" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A269" s="57">
         <v>268</v>
       </c>
@@ -52450,7 +52450,7 @@
         <v>0.00</v>
       </c>
     </row>
-    <row r="270" spans="1:68" x14ac:dyDescent="0.35">
+    <row r="270" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A270" s="57">
         <v>269</v>
       </c>
@@ -52664,9 +52664,9 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:61" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A1" s="29" t="s">
         <v>0</v>
       </c>
@@ -52844,7 +52844,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="2" spans="1:61" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>111961</v>
       </c>
@@ -53017,7 +53017,7 @@
       </c>
       <c r="BI2" s="38"/>
     </row>
-    <row r="3" spans="1:61" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>112633</v>
       </c>
@@ -53192,7 +53192,7 @@
       </c>
       <c r="BI3" s="38"/>
     </row>
-    <row r="4" spans="1:61" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
         <v>135095</v>
       </c>
@@ -53369,7 +53369,7 @@
       </c>
       <c r="BI4" s="39"/>
     </row>
-    <row r="5" spans="1:61" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>138840</v>
       </c>
@@ -53540,7 +53540,7 @@
       </c>
       <c r="BI5" s="38"/>
     </row>
-    <row r="6" spans="1:61" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>141841</v>
       </c>
@@ -53717,7 +53717,7 @@
       </c>
       <c r="BI6" s="38"/>
     </row>
-    <row r="7" spans="1:61" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>145625</v>
       </c>
@@ -53890,7 +53890,7 @@
       </c>
       <c r="BI7" s="38"/>
     </row>
-    <row r="8" spans="1:61" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>145854</v>
       </c>
@@ -54065,7 +54065,7 @@
       </c>
       <c r="BI8" s="38"/>
     </row>
-    <row r="9" spans="1:61" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>147779</v>
       </c>
@@ -54236,7 +54236,7 @@
       </c>
       <c r="BI9" s="38"/>
     </row>
-    <row r="10" spans="1:61" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>150717</v>
       </c>
@@ -54405,7 +54405,7 @@
       </c>
       <c r="BI10" s="38"/>
     </row>
-    <row r="11" spans="1:61" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>152872</v>
       </c>
@@ -54576,7 +54576,7 @@
       </c>
       <c r="BI11" s="38"/>
     </row>
-    <row r="12" spans="1:61" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>152924</v>
       </c>
@@ -54749,7 +54749,7 @@
       </c>
       <c r="BI12" s="38"/>
     </row>
-    <row r="13" spans="1:61" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>153267</v>
       </c>
@@ -54922,7 +54922,7 @@
       </c>
       <c r="BI13" s="38"/>
     </row>
-    <row r="14" spans="1:61" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>159797</v>
       </c>
@@ -55095,7 +55095,7 @@
       </c>
       <c r="BI14" s="38"/>
     </row>
-    <row r="15" spans="1:61" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>162184</v>
       </c>
@@ -55266,7 +55266,7 @@
       </c>
       <c r="BI15" s="38"/>
     </row>
-    <row r="16" spans="1:61" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>202727</v>
       </c>
@@ -55437,7 +55437,7 @@
       </c>
       <c r="BI16" s="38"/>
     </row>
-    <row r="17" spans="1:61" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>204843</v>
       </c>
@@ -55612,7 +55612,7 @@
       </c>
       <c r="BI17" s="38"/>
     </row>
-    <row r="18" spans="1:61" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>205451</v>
       </c>
@@ -55787,7 +55787,7 @@
       </c>
       <c r="BI18" s="38"/>
     </row>
-    <row r="19" spans="1:61" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>206255</v>
       </c>
@@ -55960,7 +55960,7 @@
       </c>
       <c r="BI19" s="38"/>
     </row>
-    <row r="20" spans="1:61" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>208124</v>
       </c>
@@ -56131,7 +56131,7 @@
       </c>
       <c r="BI20" s="38"/>
     </row>
-    <row r="21" spans="1:61" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>215192</v>
       </c>
@@ -56304,7 +56304,7 @@
       </c>
       <c r="BI21" s="38"/>
     </row>
-    <row r="22" spans="1:61" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>315316</v>
       </c>
@@ -56477,7 +56477,7 @@
       </c>
       <c r="BI22" s="38"/>
     </row>
-    <row r="23" spans="1:61" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>315726</v>
       </c>
@@ -56652,7 +56652,7 @@
       </c>
       <c r="BI23" s="38"/>
     </row>
-    <row r="24" spans="1:61" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>317743</v>
       </c>
@@ -56827,7 +56827,7 @@
       </c>
       <c r="BI24" s="38"/>
     </row>
-    <row r="25" spans="1:61" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>317971</v>
       </c>
@@ -57000,7 +57000,7 @@
       </c>
       <c r="BI25" s="38"/>
     </row>
-    <row r="26" spans="1:61" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>318381</v>
       </c>
@@ -57175,7 +57175,7 @@
       </c>
       <c r="BI26" s="38"/>
     </row>
-    <row r="27" spans="1:61" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>321339</v>
       </c>
@@ -57348,7 +57348,7 @@
       </c>
       <c r="BI27" s="38"/>
     </row>
-    <row r="28" spans="1:61" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>325006</v>
       </c>
@@ -57523,7 +57523,7 @@
       </c>
       <c r="BI28" s="38"/>
     </row>
-    <row r="29" spans="1:61" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>325202</v>
       </c>
@@ -57694,7 +57694,7 @@
       </c>
       <c r="BI29" s="38"/>
     </row>
-    <row r="30" spans="1:61" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>328963</v>
       </c>
@@ -57867,7 +57867,7 @@
       </c>
       <c r="BI30" s="38"/>
     </row>
-    <row r="31" spans="1:61" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>341447</v>
       </c>
@@ -58040,7 +58040,7 @@
       </c>
       <c r="BI31" s="38"/>
     </row>
-    <row r="32" spans="1:61" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>376507</v>
       </c>
@@ -58211,7 +58211,7 @@
       </c>
       <c r="BI32" s="38"/>
     </row>
-    <row r="33" spans="1:61" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>385030</v>
       </c>
@@ -58386,7 +58386,7 @@
       </c>
       <c r="BI33" s="38"/>
     </row>
-    <row r="34" spans="1:61" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>391428</v>
       </c>
@@ -58555,7 +58555,7 @@
       </c>
       <c r="BI34" s="38"/>
     </row>
-    <row r="35" spans="1:61" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>600408</v>
       </c>
@@ -58726,7 +58726,7 @@
       </c>
       <c r="BI35" s="38"/>
     </row>
-    <row r="36" spans="1:61" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>601760</v>
       </c>
@@ -58901,7 +58901,7 @@
       </c>
       <c r="BI36" s="38"/>
     </row>
-    <row r="37" spans="1:61" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>613641</v>
       </c>
@@ -59078,7 +59078,7 @@
       </c>
       <c r="BI37" s="38"/>
     </row>
-    <row r="38" spans="1:61" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>621865</v>
       </c>
@@ -59247,7 +59247,7 @@
       </c>
       <c r="BI38" s="38"/>
     </row>
-    <row r="39" spans="1:61" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>623011</v>
       </c>
@@ -59420,7 +59420,7 @@
       </c>
       <c r="BI39" s="38"/>
     </row>
-    <row r="40" spans="1:61" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>628084</v>
       </c>
@@ -59593,7 +59593,7 @@
       </c>
       <c r="BI40" s="38"/>
     </row>
-    <row r="41" spans="1:61" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>641471</v>
       </c>
@@ -59768,7 +59768,7 @@
       </c>
       <c r="BI41" s="38"/>
     </row>
-    <row r="42" spans="1:61" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>643695</v>
       </c>
@@ -59939,7 +59939,7 @@
       </c>
       <c r="BI42" s="38"/>
     </row>
-    <row r="43" spans="1:61" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>902902</v>
       </c>
@@ -60114,7 +60114,7 @@
       </c>
       <c r="BI43" s="38"/>
     </row>
-    <row r="44" spans="1:61" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A44" s="9">
         <v>135810</v>
       </c>
@@ -60280,7 +60280,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:61" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A45" s="11">
         <v>136411</v>
       </c>
@@ -60446,7 +60446,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:61" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A46" s="11">
         <v>147325</v>
       </c>
@@ -60612,7 +60612,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:61" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A47" s="11">
         <v>169904</v>
       </c>
@@ -60778,7 +60778,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:61" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A48" s="11">
         <v>207583</v>
       </c>
@@ -60946,7 +60946,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:60" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A49" s="11">
         <v>212150</v>
       </c>
@@ -61110,7 +61110,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:60" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A50" s="11">
         <v>275278</v>
       </c>
@@ -61276,7 +61276,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:60" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A51" s="11">
         <v>307065</v>
       </c>
@@ -61444,7 +61444,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:60" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A52" s="11">
         <v>309619</v>
       </c>
@@ -61612,7 +61612,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:60" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A53" s="11">
         <v>315231</v>
       </c>
@@ -61780,7 +61780,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:60" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A54" s="11">
         <v>320012</v>
       </c>
@@ -61948,7 +61948,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:60" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A55" s="11">
         <v>320751</v>
       </c>
@@ -62114,7 +62114,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:60" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A56" s="11">
         <v>320848</v>
       </c>
@@ -62282,7 +62282,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:60" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A57" s="11">
         <v>325199</v>
       </c>
@@ -62450,7 +62450,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:60" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A58" s="11">
         <v>326264</v>
       </c>
@@ -62616,7 +62616,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:60" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A59" s="11">
         <v>329125</v>
       </c>
@@ -62782,7 +62782,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:60" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A60" s="11">
         <v>329804</v>
       </c>
@@ -62950,7 +62950,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:60" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A61" s="11">
         <v>331751</v>
       </c>
@@ -63114,7 +63114,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:60" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A62" s="11">
         <v>331768</v>
       </c>
@@ -63280,7 +63280,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:60" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A63" s="11">
         <v>333706</v>
       </c>
@@ -63448,7 +63448,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:60" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A64" s="11">
         <v>335155</v>
       </c>
@@ -63616,7 +63616,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:60" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A65" s="11">
         <v>347661</v>
       </c>
@@ -63782,7 +63782,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:60" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A66" s="11">
         <v>381582</v>
       </c>
@@ -63950,7 +63950,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:60" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A67" s="11">
         <v>383943</v>
       </c>
@@ -64118,7 +64118,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="1:60" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A68" s="11">
         <v>385115</v>
       </c>
@@ -64284,7 +64284,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:60" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A69" s="11">
         <v>390120</v>
       </c>
@@ -64452,7 +64452,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:60" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A70" s="11">
         <v>392270</v>
       </c>
@@ -64618,7 +64618,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:60" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A71" s="11">
         <v>397180</v>
       </c>
@@ -64784,7 +64784,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="1:60" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A72" s="11">
         <v>588149</v>
       </c>
@@ -64950,7 +64950,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:60" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A73" s="14">
         <v>600094</v>
       </c>
@@ -65116,7 +65116,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:60" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A74" s="11">
         <v>607332</v>
       </c>
@@ -65282,7 +65282,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:60" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A75" s="11">
         <v>607686</v>
       </c>
@@ -65450,7 +65450,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:60" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A76" s="11">
         <v>608962</v>
       </c>
@@ -65614,7 +65614,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="77" spans="1:60" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A77" s="11">
         <v>615075</v>
       </c>
@@ -65782,7 +65782,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:60" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A78" s="11">
         <v>630306</v>
       </c>
@@ -65948,7 +65948,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:60" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A79" s="11">
         <v>639098</v>
       </c>
@@ -66114,7 +66114,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:60" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A80" s="11">
         <v>642871</v>
       </c>
@@ -66278,7 +66278,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:62" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A81" s="11">
         <v>975904</v>
       </c>
@@ -66446,7 +66446,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:62" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A82" s="11">
         <v>1015943</v>
       </c>
@@ -66610,7 +66610,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:62" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="83" spans="1:62" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A83" s="21">
         <v>42577</v>
       </c>
@@ -66740,7 +66740,7 @@
       <c r="BI83" s="43"/>
       <c r="BJ83" s="43"/>
     </row>
-    <row r="84" spans="1:62" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="84" spans="1:62" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A84" s="21">
         <v>110649</v>
       </c>
@@ -66876,7 +66876,7 @@
       <c r="BI84" s="43"/>
       <c r="BJ84" s="43"/>
     </row>
-    <row r="85" spans="1:62" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="85" spans="1:62" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A85" s="21">
         <v>110704</v>
       </c>
@@ -67006,7 +67006,7 @@
       <c r="BI85" s="43"/>
       <c r="BJ85" s="43"/>
     </row>
-    <row r="86" spans="1:62" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="86" spans="1:62" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A86" s="21">
         <v>111332</v>
       </c>
@@ -67139,7 +67139,7 @@
       <c r="BI86" s="43"/>
       <c r="BJ86" s="43"/>
     </row>
-    <row r="87" spans="1:62" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="87" spans="1:62" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A87" s="21">
         <v>135039</v>
       </c>
@@ -67272,7 +67272,7 @@
       <c r="BI87" s="43"/>
       <c r="BJ87" s="43"/>
     </row>
-    <row r="88" spans="1:62" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="88" spans="1:62" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A88" s="21">
         <v>135613</v>
       </c>
@@ -67405,7 +67405,7 @@
       <c r="BI88" s="43"/>
       <c r="BJ88" s="43"/>
     </row>
-    <row r="89" spans="1:62" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="89" spans="1:62" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A89" s="21">
         <v>136794</v>
       </c>
@@ -67535,7 +67535,7 @@
       <c r="BI89" s="43"/>
       <c r="BJ89" s="43"/>
     </row>
-    <row r="90" spans="1:62" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="90" spans="1:62" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A90" s="21">
         <v>138111</v>
       </c>
@@ -67668,7 +67668,7 @@
       <c r="BI90" s="43"/>
       <c r="BJ90" s="43"/>
     </row>
-    <row r="91" spans="1:62" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="91" spans="1:62" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A91" s="21">
         <v>138950</v>
       </c>
@@ -67798,7 +67798,7 @@
       <c r="BI91" s="43"/>
       <c r="BJ91" s="43"/>
     </row>
-    <row r="92" spans="1:62" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="92" spans="1:62" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A92" s="21">
         <v>139021</v>
       </c>
@@ -67928,7 +67928,7 @@
       <c r="BI92" s="43"/>
       <c r="BJ92" s="43"/>
     </row>
-    <row r="93" spans="1:62" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="93" spans="1:62" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A93" s="21">
         <v>140265</v>
       </c>
@@ -68061,7 +68061,7 @@
       <c r="BI93" s="43"/>
       <c r="BJ93" s="43"/>
     </row>
-    <row r="94" spans="1:62" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="94" spans="1:62" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A94" s="21">
         <v>140751</v>
       </c>
@@ -68188,7 +68188,7 @@
       <c r="BI94" s="43"/>
       <c r="BJ94" s="43"/>
     </row>
-    <row r="95" spans="1:62" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="95" spans="1:62" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A95" s="21">
         <v>140769</v>
       </c>
@@ -68324,7 +68324,7 @@
       <c r="BI95" s="43"/>
       <c r="BJ95" s="43"/>
     </row>
-    <row r="96" spans="1:62" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="96" spans="1:62" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A96" s="23">
         <v>141455</v>
       </c>
@@ -68457,7 +68457,7 @@
       <c r="BI96" s="43"/>
       <c r="BJ96" s="43"/>
     </row>
-    <row r="97" spans="1:62" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="97" spans="1:62" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A97" s="21">
         <v>143105</v>
       </c>
@@ -68584,7 +68584,7 @@
       <c r="BI97" s="43"/>
       <c r="BJ97" s="43"/>
     </row>
-    <row r="98" spans="1:62" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="98" spans="1:62" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A98" s="21">
         <v>143429</v>
       </c>
@@ -68717,7 +68717,7 @@
       <c r="BI98" s="43"/>
       <c r="BJ98" s="43"/>
     </row>
-    <row r="99" spans="1:62" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="99" spans="1:62" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A99" s="21">
         <v>144648</v>
       </c>
@@ -68850,7 +68850,7 @@
       <c r="BI99" s="43"/>
       <c r="BJ99" s="43"/>
     </row>
-    <row r="100" spans="1:62" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="100" spans="1:62" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A100" s="21">
         <v>146918</v>
       </c>
@@ -68979,7 +68979,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:62" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="101" spans="1:62" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A101" s="21">
         <v>147115</v>
       </c>
@@ -69105,7 +69105,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="102" spans="1:62" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="102" spans="1:62" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A102" s="21">
         <v>150523</v>
       </c>
@@ -69237,7 +69237,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:62" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="103" spans="1:62" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A103" s="21">
         <v>150625</v>
       </c>
@@ -69363,7 +69363,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="104" spans="1:62" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="104" spans="1:62" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A104" s="21">
         <v>150819</v>
       </c>
@@ -69498,7 +69498,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="105" spans="1:62" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="105" spans="1:62" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A105" s="21">
         <v>152122</v>
       </c>
@@ -69627,7 +69627,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="106" spans="1:62" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="106" spans="1:62" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A106" s="21">
         <v>152390</v>
       </c>
@@ -69762,7 +69762,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="107" spans="1:62" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="107" spans="1:62" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A107" s="21">
         <v>158811</v>
       </c>
@@ -69894,7 +69894,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="108" spans="1:62" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="108" spans="1:62" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A108" s="21">
         <v>160325</v>
       </c>
@@ -70027,7 +70027,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="1:62" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="109" spans="1:62" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A109" s="21">
         <v>166748</v>
       </c>
@@ -70162,7 +70162,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="110" spans="1:62" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="110" spans="1:62" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A110" s="21">
         <v>170134</v>
       </c>
@@ -70294,7 +70294,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="1:62" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="111" spans="1:62" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A111" s="21">
         <v>191282</v>
       </c>
@@ -70423,7 +70423,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="112" spans="1:62" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="112" spans="1:62" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A112" s="21">
         <v>199928</v>
       </c>
@@ -70555,7 +70555,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="113" spans="1:54" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="113" spans="1:54" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A113" s="21">
         <v>200025</v>
       </c>
@@ -70690,7 +70690,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="114" spans="1:54" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="114" spans="1:54" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A114" s="21">
         <v>200953</v>
       </c>
@@ -70823,7 +70823,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="115" spans="1:54" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="115" spans="1:54" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A115" s="21">
         <v>202382</v>
       </c>
@@ -70955,7 +70955,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="116" spans="1:54" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="116" spans="1:54" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A116" s="21">
         <v>203673</v>
       </c>
@@ -71088,7 +71088,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="117" spans="1:54" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="117" spans="1:54" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A117" s="21">
         <v>203748</v>
       </c>
@@ -71218,7 +71218,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="118" spans="1:54" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="118" spans="1:54" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A118" s="23">
         <v>204617</v>
       </c>
@@ -71350,7 +71350,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="119" spans="1:54" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="119" spans="1:54" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A119" s="21">
         <v>207616</v>
       </c>
@@ -71485,7 +71485,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="120" spans="1:54" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="120" spans="1:54" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A120" s="21">
         <v>208623</v>
       </c>
@@ -71617,7 +71617,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="121" spans="1:54" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="121" spans="1:54" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A121" s="23">
         <v>209414</v>
       </c>
@@ -71749,7 +71749,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="122" spans="1:54" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="122" spans="1:54" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A122" s="21">
         <v>210015</v>
       </c>
@@ -71884,7 +71884,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="123" spans="1:54" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="123" spans="1:54" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A123" s="21">
         <v>213028</v>
       </c>
@@ -72019,7 +72019,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="124" spans="1:54" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="124" spans="1:54" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A124" s="21">
         <v>213736</v>
       </c>
@@ -72154,7 +72154,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="125" spans="1:54" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="125" spans="1:54" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A125" s="21">
         <v>259768</v>
       </c>
@@ -72286,7 +72286,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="126" spans="1:54" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="126" spans="1:54" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A126" s="21">
         <v>276474</v>
       </c>
@@ -72415,7 +72415,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="127" spans="1:54" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="127" spans="1:54" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A127" s="21">
         <v>306888</v>
       </c>
@@ -72547,7 +72547,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="128" spans="1:54" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="128" spans="1:54" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A128" s="21">
         <v>306925</v>
       </c>
@@ -72682,7 +72682,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="129" spans="1:54" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="129" spans="1:54" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A129" s="21">
         <v>307020</v>
       </c>
@@ -72817,7 +72817,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="130" spans="1:54" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="130" spans="1:54" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A130" s="21">
         <v>308354</v>
       </c>
@@ -72949,7 +72949,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="131" spans="1:54" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="131" spans="1:54" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A131" s="21">
         <v>309864</v>
       </c>
@@ -73082,7 +73082,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="132" spans="1:54" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="132" spans="1:54" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A132" s="21">
         <v>309910</v>
       </c>
@@ -73217,7 +73217,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="133" spans="1:54" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="133" spans="1:54" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A133" s="21">
         <v>310272</v>
       </c>
@@ -73349,7 +73349,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="134" spans="1:54" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="134" spans="1:54" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A134" s="21">
         <v>310332</v>
       </c>
@@ -73481,7 +73481,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="135" spans="1:54" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="135" spans="1:54" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A135" s="21">
         <v>311141</v>
       </c>
@@ -73610,7 +73610,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="136" spans="1:54" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="136" spans="1:54" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A136" s="21">
         <v>312829</v>
       </c>
@@ -73739,7 +73739,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="137" spans="1:54" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="137" spans="1:54" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A137" s="21">
         <v>314930</v>
       </c>
@@ -73871,7 +73871,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="138" spans="1:54" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="138" spans="1:54" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A138" s="21">
         <v>316051</v>
       </c>
@@ -74003,7 +74003,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="139" spans="1:54" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="139" spans="1:54" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A139" s="21">
         <v>316455</v>
       </c>
@@ -74135,7 +74135,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="140" spans="1:54" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="140" spans="1:54" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A140" s="23">
         <v>317076</v>
       </c>
@@ -74264,7 +74264,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="141" spans="1:54" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="141" spans="1:54" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A141" s="21">
         <v>318099</v>
       </c>
@@ -74396,7 +74396,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="142" spans="1:54" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="142" spans="1:54" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A142" s="21">
         <v>318630</v>
       </c>
@@ -74528,7 +74528,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="143" spans="1:54" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="143" spans="1:54" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A143" s="21">
         <v>318701</v>
       </c>
@@ -74657,7 +74657,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="144" spans="1:54" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="144" spans="1:54" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A144" s="21">
         <v>318875</v>
       </c>
@@ -74787,7 +74787,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="145" spans="1:54" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="145" spans="1:54" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A145" s="21">
         <v>319036</v>
       </c>
@@ -74919,7 +74919,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="146" spans="1:54" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="146" spans="1:54" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A146" s="21">
         <v>319214</v>
       </c>
@@ -75051,7 +75051,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="147" spans="1:54" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="147" spans="1:54" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A147" s="21">
         <v>320411</v>
       </c>
@@ -75180,7 +75180,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="148" spans="1:54" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="148" spans="1:54" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A148" s="21">
         <v>320497</v>
       </c>
@@ -75312,7 +75312,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="149" spans="1:54" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="149" spans="1:54" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A149" s="21">
         <v>321139</v>
       </c>
@@ -75441,7 +75441,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="150" spans="1:54" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="150" spans="1:54" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A150" s="21">
         <v>321311</v>
       </c>
@@ -75573,7 +75573,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="151" spans="1:54" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="151" spans="1:54" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A151" s="21">
         <v>322823</v>
       </c>
@@ -75707,7 +75707,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="152" spans="1:54" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="152" spans="1:54" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A152" s="21">
         <v>323749</v>
       </c>
@@ -75835,7 +75835,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="153" spans="1:54" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="153" spans="1:54" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A153" s="21">
         <v>324099</v>
       </c>
@@ -75967,7 +75967,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="154" spans="1:54" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="154" spans="1:54" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A154" s="21">
         <v>325337</v>
       </c>
@@ -76095,7 +76095,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="155" spans="1:54" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="155" spans="1:54" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A155" s="21">
         <v>326142</v>
       </c>
@@ -76226,7 +76226,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="156" spans="1:54" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="156" spans="1:54" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A156" s="21">
         <v>326226</v>
       </c>
@@ -76360,7 +76360,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="157" spans="1:54" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="157" spans="1:54" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A157" s="21">
         <v>328773</v>
       </c>
@@ -76494,7 +76494,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="158" spans="1:54" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="158" spans="1:54" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A158" s="21">
         <v>332494</v>
       </c>
@@ -76625,7 +76625,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="159" spans="1:54" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="159" spans="1:54" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A159" s="21">
         <v>332573</v>
       </c>
@@ -76756,7 +76756,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="160" spans="1:54" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="160" spans="1:54" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A160" s="21">
         <v>333313</v>
       </c>
@@ -76890,7 +76890,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="161" spans="1:54" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="161" spans="1:54" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A161" s="21">
         <v>334589</v>
       </c>
@@ -77024,7 +77024,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="162" spans="1:54" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="162" spans="1:54" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A162" s="21">
         <v>335299</v>
       </c>
@@ -77152,7 +77152,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="163" spans="1:54" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="163" spans="1:54" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A163" s="21">
         <v>336875</v>
       </c>
@@ -77286,7 +77286,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="164" spans="1:54" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="164" spans="1:54" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A164" s="21">
         <v>336884</v>
       </c>
@@ -77417,7 +77417,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="165" spans="1:54" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="165" spans="1:54" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A165" s="21">
         <v>337685</v>
       </c>
@@ -77548,7 +77548,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="166" spans="1:54" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="166" spans="1:54" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A166" s="21">
         <v>337917</v>
       </c>
@@ -77676,7 +77676,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="167" spans="1:54" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="167" spans="1:54" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A167" s="21">
         <v>339100</v>
       </c>
@@ -77807,7 +77807,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="168" spans="1:54" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="168" spans="1:54" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A168" s="21">
         <v>339949</v>
       </c>
@@ -77938,7 +77938,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="169" spans="1:54" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="169" spans="1:54" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A169" s="21">
         <v>341884</v>
       </c>
@@ -78072,7 +78072,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="170" spans="1:54" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="170" spans="1:54" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A170" s="21">
         <v>343630</v>
       </c>
@@ -78206,7 +78206,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="171" spans="1:54" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="171" spans="1:54" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A171" s="21">
         <v>344816</v>
       </c>
@@ -78340,7 +78340,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="172" spans="1:54" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="172" spans="1:54" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A172" s="21">
         <v>347384</v>
       </c>
@@ -78468,7 +78468,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="173" spans="1:54" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="173" spans="1:54" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A173" s="21">
         <v>347495</v>
       </c>
@@ -78596,7 +78596,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="174" spans="1:54" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="174" spans="1:54" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A174" s="21">
         <v>369714</v>
       </c>
@@ -78727,7 +78727,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="175" spans="1:54" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="175" spans="1:54" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A175" s="21">
         <v>370862</v>
       </c>
@@ -78858,7 +78858,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="176" spans="1:54" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="176" spans="1:54" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A176" s="21">
         <v>378361</v>
       </c>
@@ -78989,7 +78989,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="177" spans="1:54" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="177" spans="1:54" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A177" s="21">
         <v>381440</v>
       </c>
@@ -79117,7 +79117,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="178" spans="1:54" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="178" spans="1:54" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A178" s="21">
         <v>381867</v>
       </c>
@@ -79248,7 +79248,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="179" spans="1:54" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="179" spans="1:54" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A179" s="21">
         <v>382190</v>
       </c>
@@ -79376,7 +79376,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="180" spans="1:54" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="180" spans="1:54" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A180" s="21">
         <v>384195</v>
       </c>
@@ -79507,7 +79507,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="181" spans="1:54" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="181" spans="1:54" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A181" s="21">
         <v>384256</v>
       </c>
@@ -79638,7 +79638,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="182" spans="1:54" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="182" spans="1:54" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A182" s="21">
         <v>390221</v>
       </c>
@@ -79769,7 +79769,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="183" spans="1:54" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="183" spans="1:54" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A183" s="21">
         <v>390448</v>
       </c>
@@ -79900,7 +79900,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="184" spans="1:54" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="184" spans="1:54" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A184" s="21">
         <v>390876</v>
       </c>
@@ -80031,7 +80031,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="185" spans="1:54" x14ac:dyDescent="0.35">
+    <row r="185" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A185" s="27">
         <v>394654</v>
       </c>
@@ -80165,7 +80165,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="186" spans="1:54" x14ac:dyDescent="0.35">
+    <row r="186" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A186" s="27">
         <v>470368</v>
       </c>
@@ -80299,7 +80299,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="187" spans="1:54" x14ac:dyDescent="0.35">
+    <row r="187" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A187" s="27">
         <v>567458</v>
       </c>
@@ -80430,7 +80430,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="188" spans="1:54" x14ac:dyDescent="0.35">
+    <row r="188" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A188" s="27">
         <v>573094</v>
       </c>
@@ -80561,7 +80561,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="189" spans="1:54" x14ac:dyDescent="0.35">
+    <row r="189" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A189" s="27">
         <v>578758</v>
       </c>
@@ -80692,7 +80692,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="190" spans="1:54" x14ac:dyDescent="0.35">
+    <row r="190" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A190" s="27">
         <v>583885</v>
       </c>
@@ -80826,7 +80826,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="191" spans="1:54" x14ac:dyDescent="0.35">
+    <row r="191" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A191" s="27">
         <v>599687</v>
       </c>
@@ -80960,7 +80960,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="192" spans="1:54" x14ac:dyDescent="0.35">
+    <row r="192" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A192" s="27">
         <v>599897</v>
       </c>
@@ -81091,7 +81091,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="193" spans="1:54" x14ac:dyDescent="0.35">
+    <row r="193" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A193" s="27">
         <v>601464</v>
       </c>
@@ -81222,7 +81222,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="194" spans="1:54" x14ac:dyDescent="0.35">
+    <row r="194" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A194" s="27">
         <v>602475</v>
       </c>
@@ -81353,7 +81353,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="195" spans="1:54" x14ac:dyDescent="0.35">
+    <row r="195" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A195" s="27">
         <v>603049</v>
       </c>
@@ -81484,7 +81484,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="196" spans="1:54" x14ac:dyDescent="0.35">
+    <row r="196" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A196" s="27">
         <v>603970</v>
       </c>
@@ -81612,7 +81612,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="197" spans="1:54" x14ac:dyDescent="0.35">
+    <row r="197" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A197" s="27">
         <v>604414</v>
       </c>
@@ -81746,7 +81746,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="198" spans="1:54" x14ac:dyDescent="0.35">
+    <row r="198" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A198" s="27">
         <v>604589</v>
       </c>
@@ -81877,7 +81877,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="199" spans="1:54" x14ac:dyDescent="0.35">
+    <row r="199" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A199" s="27">
         <v>604596</v>
       </c>
@@ -82008,7 +82008,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="200" spans="1:54" x14ac:dyDescent="0.35">
+    <row r="200" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A200" s="27">
         <v>607049</v>
       </c>
@@ -82136,7 +82136,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="201" spans="1:54" x14ac:dyDescent="0.35">
+    <row r="201" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A201" s="27">
         <v>608486</v>
       </c>
@@ -82267,7 +82267,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="202" spans="1:54" x14ac:dyDescent="0.35">
+    <row r="202" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A202" s="27">
         <v>608895</v>
       </c>
@@ -82401,7 +82401,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="203" spans="1:54" x14ac:dyDescent="0.35">
+    <row r="203" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A203" s="27">
         <v>610013</v>
       </c>
@@ -82532,7 +82532,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="204" spans="1:54" x14ac:dyDescent="0.35">
+    <row r="204" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A204" s="27">
         <v>611640</v>
       </c>
@@ -82663,7 +82663,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="205" spans="1:54" x14ac:dyDescent="0.35">
+    <row r="205" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A205" s="27">
         <v>612251</v>
       </c>
@@ -82797,7 +82797,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="206" spans="1:54" x14ac:dyDescent="0.35">
+    <row r="206" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A206" s="27">
         <v>613129</v>
       </c>
@@ -82928,7 +82928,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="207" spans="1:54" x14ac:dyDescent="0.35">
+    <row r="207" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A207" s="27">
         <v>613450</v>
       </c>
@@ -83059,7 +83059,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="208" spans="1:54" x14ac:dyDescent="0.35">
+    <row r="208" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A208" s="27">
         <v>614613</v>
       </c>
@@ -83193,7 +83193,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="209" spans="1:54" x14ac:dyDescent="0.35">
+    <row r="209" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A209" s="27">
         <v>614666</v>
       </c>
@@ -83327,7 +83327,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="210" spans="1:54" x14ac:dyDescent="0.35">
+    <row r="210" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A210" s="27">
         <v>617305</v>
       </c>
@@ -83458,7 +83458,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="211" spans="1:54" x14ac:dyDescent="0.35">
+    <row r="211" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A211" s="27">
         <v>619305</v>
       </c>
@@ -83589,7 +83589,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="212" spans="1:54" x14ac:dyDescent="0.35">
+    <row r="212" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A212" s="27">
         <v>619516</v>
       </c>
@@ -83720,7 +83720,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="213" spans="1:54" x14ac:dyDescent="0.35">
+    <row r="213" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A213" s="27">
         <v>620411</v>
       </c>
@@ -83848,7 +83848,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="214" spans="1:54" x14ac:dyDescent="0.35">
+    <row r="214" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A214" s="27">
         <v>620445</v>
       </c>
@@ -83979,7 +83979,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="215" spans="1:54" x14ac:dyDescent="0.35">
+    <row r="215" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A215" s="27">
         <v>621358</v>
       </c>
@@ -84110,7 +84110,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="216" spans="1:54" x14ac:dyDescent="0.35">
+    <row r="216" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A216" s="27">
         <v>622051</v>
       </c>
@@ -84244,7 +84244,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="217" spans="1:54" x14ac:dyDescent="0.35">
+    <row r="217" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A217" s="27">
         <v>622083</v>
       </c>
@@ -84375,7 +84375,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="218" spans="1:54" x14ac:dyDescent="0.35">
+    <row r="218" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A218" s="27">
         <v>622212</v>
       </c>
@@ -84503,7 +84503,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="219" spans="1:54" x14ac:dyDescent="0.35">
+    <row r="219" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A219" s="27">
         <v>622974</v>
       </c>
@@ -84637,7 +84637,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="220" spans="1:54" x14ac:dyDescent="0.35">
+    <row r="220" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A220" s="27">
         <v>624617</v>
       </c>
@@ -84768,7 +84768,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="221" spans="1:54" x14ac:dyDescent="0.35">
+    <row r="221" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A221" s="27">
         <v>625596</v>
       </c>
@@ -84896,7 +84896,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="222" spans="1:54" x14ac:dyDescent="0.35">
+    <row r="222" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A222" s="27">
         <v>628028</v>
       </c>
@@ -85030,7 +85030,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="223" spans="1:54" x14ac:dyDescent="0.35">
+    <row r="223" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A223" s="27">
         <v>629560</v>
       </c>
@@ -85158,7 +85158,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="224" spans="1:54" x14ac:dyDescent="0.35">
+    <row r="224" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A224" s="27">
         <v>629727</v>
       </c>
@@ -85289,7 +85289,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="225" spans="1:54" x14ac:dyDescent="0.35">
+    <row r="225" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A225" s="27">
         <v>630549</v>
       </c>
@@ -85420,7 +85420,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="226" spans="1:54" x14ac:dyDescent="0.35">
+    <row r="226" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A226" s="27">
         <v>631167</v>
       </c>
@@ -85554,7 +85554,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="227" spans="1:54" x14ac:dyDescent="0.35">
+    <row r="227" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A227" s="27">
         <v>631736</v>
       </c>
@@ -85685,7 +85685,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="228" spans="1:54" x14ac:dyDescent="0.35">
+    <row r="228" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A228" s="27">
         <v>631877</v>
       </c>
@@ -85816,7 +85816,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="229" spans="1:54" x14ac:dyDescent="0.35">
+    <row r="229" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A229" s="27">
         <v>635021</v>
       </c>
@@ -85947,7 +85947,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="230" spans="1:54" x14ac:dyDescent="0.35">
+    <row r="230" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A230" s="27">
         <v>636142</v>
       </c>
@@ -86078,7 +86078,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="231" spans="1:54" x14ac:dyDescent="0.35">
+    <row r="231" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A231" s="27">
         <v>637926</v>
       </c>
@@ -86209,7 +86209,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="232" spans="1:54" x14ac:dyDescent="0.35">
+    <row r="232" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A232" s="27">
         <v>638902</v>
       </c>
@@ -86343,7 +86343,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="233" spans="1:54" x14ac:dyDescent="0.35">
+    <row r="233" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A233" s="27">
         <v>639057</v>
       </c>
@@ -86477,7 +86477,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="234" spans="1:54" x14ac:dyDescent="0.35">
+    <row r="234" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A234" s="27">
         <v>640023</v>
       </c>
@@ -86611,7 +86611,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="235" spans="1:54" x14ac:dyDescent="0.35">
+    <row r="235" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A235" s="27">
         <v>640422</v>
       </c>
@@ -86745,7 +86745,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="236" spans="1:54" x14ac:dyDescent="0.35">
+    <row r="236" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A236" s="27">
         <v>641220</v>
       </c>
@@ -86876,7 +86876,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="237" spans="1:54" x14ac:dyDescent="0.35">
+    <row r="237" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A237" s="27">
         <v>644231</v>
       </c>
@@ -87001,7 +87001,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="238" spans="1:54" x14ac:dyDescent="0.35">
+    <row r="238" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A238" s="27">
         <v>645947</v>
       </c>
@@ -87129,7 +87129,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="239" spans="1:54" x14ac:dyDescent="0.35">
+    <row r="239" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A239" s="27">
         <v>754074</v>
       </c>
@@ -87260,7 +87260,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="240" spans="1:54" x14ac:dyDescent="0.35">
+    <row r="240" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A240" s="27">
         <v>870434</v>
       </c>
@@ -87394,7 +87394,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="241" spans="1:60" x14ac:dyDescent="0.35">
+    <row r="241" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A241" s="27">
         <v>872574</v>
       </c>
@@ -87522,7 +87522,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="242" spans="1:60" x14ac:dyDescent="0.35">
+    <row r="242" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A242" s="27">
         <v>881672</v>
       </c>
@@ -87653,7 +87653,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="243" spans="1:60" x14ac:dyDescent="0.35">
+    <row r="243" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A243" s="27">
         <v>898265</v>
       </c>
@@ -87781,7 +87781,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="244" spans="1:60" x14ac:dyDescent="0.35">
+    <row r="244" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A244" s="27">
         <v>908046</v>
       </c>
@@ -87912,7 +87912,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="245" spans="1:60" x14ac:dyDescent="0.35">
+    <row r="245" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A245" s="27">
         <v>931586</v>
       </c>
@@ -88043,7 +88043,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="246" spans="1:60" x14ac:dyDescent="0.35">
+    <row r="246" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A246" s="27">
         <v>945191</v>
       </c>
@@ -88174,7 +88174,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="247" spans="1:60" x14ac:dyDescent="0.35">
+    <row r="247" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A247" s="27">
         <v>954825</v>
       </c>
@@ -88305,7 +88305,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="248" spans="1:60" x14ac:dyDescent="0.35">
+    <row r="248" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A248" s="27">
         <v>956086</v>
       </c>
@@ -88436,7 +88436,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="249" spans="1:60" x14ac:dyDescent="0.35">
+    <row r="249" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A249" s="27">
         <v>961025</v>
       </c>
@@ -88570,7 +88570,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="250" spans="1:60" x14ac:dyDescent="0.35">
+    <row r="250" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A250" s="27">
         <v>968007</v>
       </c>
@@ -88701,7 +88701,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="251" spans="1:60" x14ac:dyDescent="0.35">
+    <row r="251" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A251" s="27">
         <v>973700</v>
       </c>
@@ -88832,7 +88832,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="252" spans="1:60" x14ac:dyDescent="0.35">
+    <row r="252" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A252" s="27">
         <v>978940</v>
       </c>
@@ -88963,7 +88963,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="253" spans="1:60" x14ac:dyDescent="0.35">
+    <row r="253" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A253" s="27">
         <v>986338</v>
       </c>
@@ -89094,7 +89094,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="254" spans="1:60" x14ac:dyDescent="0.35">
+    <row r="254" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A254" s="15">
         <v>135921</v>
       </c>
@@ -89260,7 +89260,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="255" spans="1:60" x14ac:dyDescent="0.35">
+    <row r="255" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A255" s="15">
         <v>138265</v>
       </c>
@@ -89430,7 +89430,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="256" spans="1:60" x14ac:dyDescent="0.35">
+    <row r="256" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A256" s="15">
         <v>139329</v>
       </c>
@@ -89596,7 +89596,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="257" spans="1:60" x14ac:dyDescent="0.35">
+    <row r="257" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A257" s="15">
         <v>144109</v>
       </c>
@@ -89766,7 +89766,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="258" spans="1:60" x14ac:dyDescent="0.35">
+    <row r="258" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A258" s="15">
         <v>268960</v>
       </c>
@@ -89932,7 +89932,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="259" spans="1:60" x14ac:dyDescent="0.35">
+    <row r="259" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A259" s="15">
         <v>307116</v>
       </c>
@@ -90100,7 +90100,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="260" spans="1:60" x14ac:dyDescent="0.35">
+    <row r="260" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A260" s="15">
         <v>310441</v>
       </c>
@@ -90268,7 +90268,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="261" spans="1:60" x14ac:dyDescent="0.35">
+    <row r="261" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A261" s="15">
         <v>316394</v>
       </c>
@@ -90436,7 +90436,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="262" spans="1:60" x14ac:dyDescent="0.35">
+    <row r="262" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A262" s="15">
         <v>322054</v>
       </c>
@@ -90606,7 +90606,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="263" spans="1:60" x14ac:dyDescent="0.35">
+    <row r="263" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A263" s="15">
         <v>336775</v>
       </c>
@@ -90776,7 +90776,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="264" spans="1:60" x14ac:dyDescent="0.35">
+    <row r="264" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A264" s="15">
         <v>386578</v>
       </c>
@@ -90942,7 +90942,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="265" spans="1:60" x14ac:dyDescent="0.35">
+    <row r="265" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A265" s="15">
         <v>611421</v>
       </c>
@@ -91112,7 +91112,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="266" spans="1:60" x14ac:dyDescent="0.35">
+    <row r="266" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A266" s="15">
         <v>614293</v>
       </c>
@@ -91280,7 +91280,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="267" spans="1:60" x14ac:dyDescent="0.35">
+    <row r="267" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A267" s="15">
         <v>623190</v>
       </c>
@@ -91448,7 +91448,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="268" spans="1:60" x14ac:dyDescent="0.35">
+    <row r="268" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A268" s="15">
         <v>624773</v>
       </c>
@@ -91616,7 +91616,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="269" spans="1:60" x14ac:dyDescent="0.35">
+    <row r="269" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A269" s="19">
         <v>873569</v>
       </c>
@@ -91786,7 +91786,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="270" spans="1:60" x14ac:dyDescent="0.35">
+    <row r="270" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A270" s="15">
         <v>921675</v>
       </c>
@@ -91965,9 +91965,9 @@
       <selection activeCell="P10" sqref="P10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="87" t="s">
         <v>82</v>
       </c>
@@ -92011,7 +92011,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="91">
         <v>1</v>
       </c>
@@ -92049,7 +92049,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" s="91">
         <v>2</v>
       </c>
@@ -92087,7 +92087,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" s="91">
         <v>3</v>
       </c>
@@ -92125,7 +92125,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" s="91">
         <v>4</v>
       </c>
@@ -92163,7 +92163,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" s="91">
         <v>5</v>
       </c>
@@ -92201,7 +92201,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" s="91">
         <v>6</v>
       </c>
@@ -92242,7 +92242,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" s="91">
         <v>7</v>
       </c>
@@ -92280,7 +92280,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" s="91">
         <v>8</v>
       </c>
@@ -92318,7 +92318,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" s="91">
         <v>9</v>
       </c>
@@ -92356,7 +92356,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" s="91">
         <v>10</v>
       </c>
@@ -92394,7 +92394,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" s="91">
         <v>11</v>
       </c>
@@ -92432,7 +92432,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" s="91">
         <v>12</v>
       </c>
@@ -92470,7 +92470,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" s="91">
         <v>13</v>
       </c>
@@ -92508,7 +92508,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15" s="91">
         <v>14</v>
       </c>
@@ -92546,7 +92546,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16" s="91">
         <v>15</v>
       </c>
@@ -92584,7 +92584,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A17" s="91">
         <v>16</v>
       </c>
@@ -92622,7 +92622,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A18" s="91">
         <v>17</v>
       </c>
@@ -92660,7 +92660,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A19" s="91">
         <v>18</v>
       </c>
@@ -92698,7 +92698,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A20" s="91">
         <v>19</v>
       </c>
@@ -92736,7 +92736,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A21" s="91">
         <v>20</v>
       </c>
@@ -92774,7 +92774,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A22" s="91">
         <v>21</v>
       </c>
@@ -92812,7 +92812,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A23" s="91">
         <v>22</v>
       </c>
@@ -92850,7 +92850,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A24" s="91">
         <v>23</v>
       </c>
@@ -92888,7 +92888,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A25" s="91">
         <v>24</v>
       </c>
@@ -92929,7 +92929,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A26" s="91">
         <v>25</v>
       </c>
@@ -92970,7 +92970,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A27" s="91">
         <v>26</v>
       </c>
@@ -93008,7 +93008,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A28" s="91">
         <v>27</v>
       </c>
@@ -93049,7 +93049,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A29" s="91">
         <v>28</v>
       </c>
@@ -93090,7 +93090,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A30" s="91">
         <v>29</v>
       </c>
@@ -93131,7 +93131,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A31" s="91">
         <v>30</v>
       </c>
@@ -93169,7 +93169,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A32" s="91">
         <v>31</v>
       </c>
@@ -93210,7 +93210,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A33" s="91">
         <v>32</v>
       </c>
@@ -93248,7 +93248,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A34" s="91">
         <v>33</v>
       </c>
@@ -93286,7 +93286,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A35" s="91">
         <v>34</v>
       </c>
@@ -93324,7 +93324,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A36" s="91">
         <v>35</v>
       </c>
@@ -93362,7 +93362,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A37" s="91">
         <v>36</v>
       </c>
@@ -93400,7 +93400,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A38" s="91">
         <v>37</v>
       </c>
@@ -93438,7 +93438,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A39" s="91">
         <v>38</v>
       </c>
@@ -93479,7 +93479,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A40" s="91">
         <v>39</v>
       </c>
@@ -93517,7 +93517,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A41" s="91">
         <v>40</v>
       </c>
@@ -93558,7 +93558,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A42" s="91">
         <v>41</v>
       </c>
@@ -93596,7 +93596,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="43" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A43" s="91">
         <v>42</v>
       </c>
@@ -93634,7 +93634,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="44" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A44" s="91">
         <v>43</v>
       </c>
@@ -93660,7 +93660,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="45" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A45" s="91">
         <v>44</v>
       </c>
@@ -93698,7 +93698,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="46" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A46" s="91">
         <v>45</v>
       </c>
@@ -93736,7 +93736,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="47" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A47" s="91">
         <v>46</v>
       </c>
@@ -93777,7 +93777,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="48" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A48" s="91">
         <v>47</v>
       </c>
@@ -93815,7 +93815,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A49" s="91">
         <v>48</v>
       </c>
@@ -93853,7 +93853,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A50" s="91">
         <v>49</v>
       </c>
@@ -93894,7 +93894,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="51" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A51" s="91">
         <v>50</v>
       </c>
@@ -93932,7 +93932,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="52" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A52" s="91">
         <v>51</v>
       </c>
@@ -93970,7 +93970,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="53" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A53" s="91">
         <v>52</v>
       </c>
@@ -94008,7 +94008,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="54" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A54" s="91">
         <v>53</v>
       </c>
@@ -94046,7 +94046,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="55" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A55" s="91">
         <v>54</v>
       </c>
@@ -94084,7 +94084,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="56" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A56" s="91">
         <v>55</v>
       </c>
@@ -94122,7 +94122,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="57" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A57" s="91">
         <v>56</v>
       </c>
@@ -94163,7 +94163,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="58" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A58" s="91">
         <v>57</v>
       </c>
@@ -94201,7 +94201,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="59" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A59" s="91">
         <v>58</v>
       </c>
@@ -94239,7 +94239,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="60" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A60" s="91">
         <v>59</v>
       </c>
@@ -94280,7 +94280,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="61" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A61" s="91">
         <v>60</v>
       </c>
@@ -94318,7 +94318,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="62" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A62" s="91">
         <v>61</v>
       </c>
@@ -94359,7 +94359,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="63" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A63" s="91">
         <v>62</v>
       </c>
@@ -94397,7 +94397,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="64" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A64" s="91">
         <v>63</v>
       </c>
@@ -94435,7 +94435,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="65" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A65" s="91">
         <v>64</v>
       </c>
@@ -94473,7 +94473,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="66" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A66" s="91">
         <v>65</v>
       </c>
@@ -94514,7 +94514,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="67" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A67" s="91">
         <v>66</v>
       </c>
@@ -94552,7 +94552,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="68" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A68" s="91">
         <v>67</v>
       </c>
@@ -94590,7 +94590,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="69" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A69" s="91">
         <v>68</v>
       </c>
@@ -94631,7 +94631,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="70" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A70" s="91">
         <v>69</v>
       </c>
@@ -94669,7 +94669,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="71" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A71" s="91">
         <v>70</v>
       </c>
@@ -94695,7 +94695,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="72" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A72" s="91">
         <v>71</v>
       </c>
@@ -94733,7 +94733,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="73" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A73" s="91">
         <v>72</v>
       </c>
@@ -94771,7 +94771,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="74" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A74" s="91">
         <v>73</v>
       </c>
@@ -94812,7 +94812,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="75" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A75" s="91">
         <v>74</v>
       </c>
@@ -94853,7 +94853,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="76" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A76" s="91">
         <v>75</v>
       </c>
@@ -94891,7 +94891,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="77" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A77" s="91">
         <v>76</v>
       </c>
@@ -94932,7 +94932,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="78" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A78" s="91">
         <v>77</v>
       </c>
@@ -94970,7 +94970,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="79" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A79" s="91">
         <v>78</v>
       </c>
@@ -95008,7 +95008,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="80" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A80" s="91">
         <v>79</v>
       </c>
@@ -95049,7 +95049,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="81" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A81" s="91">
         <v>80</v>
       </c>
@@ -95090,7 +95090,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="82" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A82" s="91">
         <v>81</v>
       </c>
@@ -95131,7 +95131,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="83" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A83" s="91">
         <v>82</v>
       </c>
@@ -95172,7 +95172,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="84" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A84" s="91">
         <v>83</v>
       </c>
@@ -95210,7 +95210,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="85" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A85" s="91">
         <v>84</v>
       </c>
@@ -95248,7 +95248,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="86" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A86" s="91">
         <v>85</v>
       </c>
@@ -95289,7 +95289,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="87" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A87" s="91">
         <v>86</v>
       </c>
@@ -95327,7 +95327,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="88" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A88" s="91">
         <v>87</v>
       </c>
@@ -95365,7 +95365,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="89" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A89" s="91">
         <v>88</v>
       </c>
@@ -95403,7 +95403,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="90" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A90" s="91">
         <v>89</v>
       </c>
@@ -95441,7 +95441,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="91" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A91" s="91">
         <v>90</v>
       </c>
@@ -95479,7 +95479,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="92" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A92" s="91">
         <v>91</v>
       </c>
@@ -95517,7 +95517,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="93" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A93" s="91">
         <v>92</v>
       </c>
@@ -95555,7 +95555,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="94" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A94" s="91">
         <v>93</v>
       </c>
@@ -95596,7 +95596,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="95" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A95" s="91">
         <v>94</v>
       </c>
@@ -95634,7 +95634,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="96" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A96" s="91">
         <v>95</v>
       </c>
@@ -95672,7 +95672,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="97" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A97" s="91">
         <v>96</v>
       </c>
@@ -95710,7 +95710,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="98" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A98" s="91">
         <v>97</v>
       </c>
@@ -95748,7 +95748,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="99" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A99" s="91">
         <v>98</v>
       </c>
@@ -95786,7 +95786,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="100" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A100" s="91">
         <v>99</v>
       </c>
@@ -95827,7 +95827,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="101" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A101" s="91">
         <v>100</v>
       </c>
@@ -95865,7 +95865,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="102" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A102" s="91">
         <v>101</v>
       </c>
@@ -95903,7 +95903,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="103" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A103" s="91">
         <v>102</v>
       </c>
@@ -95941,7 +95941,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="104" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A104" s="91">
         <v>103</v>
       </c>
@@ -95982,7 +95982,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="105" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A105" s="91">
         <v>104</v>
       </c>
@@ -96023,7 +96023,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="106" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A106" s="91">
         <v>105</v>
       </c>
@@ -96061,7 +96061,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="107" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A107" s="91">
         <v>106</v>
       </c>
@@ -96099,7 +96099,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="108" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A108" s="91">
         <v>107</v>
       </c>
@@ -96137,7 +96137,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="109" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A109" s="91">
         <v>108</v>
       </c>
@@ -96175,7 +96175,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="110" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A110" s="91">
         <v>109</v>
       </c>
@@ -96216,7 +96216,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="111" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A111" s="91">
         <v>110</v>
       </c>
@@ -96254,7 +96254,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="112" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A112" s="91">
         <v>111</v>
       </c>
@@ -96292,7 +96292,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="113" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A113" s="91">
         <v>112</v>
       </c>
@@ -96330,7 +96330,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="114" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A114" s="91">
         <v>113</v>
       </c>
@@ -96371,7 +96371,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="115" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A115" s="91">
         <v>114</v>
       </c>
@@ -96412,7 +96412,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="116" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A116" s="91">
         <v>115</v>
       </c>
@@ -96450,7 +96450,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="117" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A117" s="91">
         <v>116</v>
       </c>
@@ -96488,7 +96488,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="118" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A118" s="91">
         <v>117</v>
       </c>
@@ -96526,7 +96526,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="119" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A119" s="91">
         <v>118</v>
       </c>
@@ -96564,7 +96564,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="120" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A120" s="91">
         <v>119</v>
       </c>
@@ -96602,7 +96602,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="121" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A121" s="91">
         <v>120</v>
       </c>
@@ -96640,7 +96640,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="122" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A122" s="91">
         <v>121</v>
       </c>
@@ -96678,7 +96678,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="123" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A123" s="91">
         <v>122</v>
       </c>
@@ -96716,7 +96716,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="124" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A124" s="91">
         <v>123</v>
       </c>
@@ -96754,7 +96754,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="125" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A125" s="91">
         <v>124</v>
       </c>
@@ -96792,7 +96792,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="126" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A126" s="91">
         <v>125</v>
       </c>
@@ -96830,7 +96830,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="127" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A127" s="91">
         <v>126</v>
       </c>
@@ -96868,7 +96868,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="128" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A128" s="91">
         <v>127</v>
       </c>
@@ -96909,7 +96909,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="129" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A129" s="91">
         <v>128</v>
       </c>
@@ -96947,7 +96947,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="130" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A130" s="91">
         <v>129</v>
       </c>
@@ -96985,7 +96985,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="131" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A131" s="91">
         <v>130</v>
       </c>
@@ -97023,7 +97023,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="132" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A132" s="91">
         <v>131</v>
       </c>
@@ -97061,7 +97061,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="133" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A133" s="91">
         <v>132</v>
       </c>
@@ -97099,7 +97099,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="134" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A134" s="91">
         <v>133</v>
       </c>
@@ -97137,7 +97137,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="135" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A135" s="91">
         <v>134</v>
       </c>
@@ -97175,7 +97175,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="136" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A136" s="91">
         <v>135</v>
       </c>
@@ -97216,7 +97216,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="137" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A137" s="91">
         <v>136</v>
       </c>
@@ -97254,7 +97254,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="138" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A138" s="91">
         <v>137</v>
       </c>
@@ -97292,7 +97292,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="139" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A139" s="91">
         <v>138</v>
       </c>
@@ -97330,7 +97330,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="140" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A140" s="91">
         <v>139</v>
       </c>
@@ -97368,7 +97368,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="141" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A141" s="91">
         <v>140</v>
       </c>
@@ -97406,7 +97406,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="142" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A142" s="91">
         <v>141</v>
       </c>
@@ -97444,7 +97444,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="143" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A143" s="91">
         <v>142</v>
       </c>
@@ -97482,7 +97482,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="144" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A144" s="91">
         <v>143</v>
       </c>
@@ -97520,7 +97520,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="145" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A145" s="91">
         <v>144</v>
       </c>
@@ -97558,7 +97558,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="146" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A146" s="91">
         <v>145</v>
       </c>
@@ -97599,7 +97599,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="147" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A147" s="91">
         <v>146</v>
       </c>
@@ -97637,7 +97637,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="148" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A148" s="91">
         <v>147</v>
       </c>
@@ -97678,7 +97678,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="149" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A149" s="91">
         <v>148</v>
       </c>
@@ -97716,7 +97716,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="150" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A150" s="91">
         <v>149</v>
       </c>
@@ -97757,7 +97757,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="151" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A151" s="91">
         <v>150</v>
       </c>
@@ -97795,7 +97795,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="152" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A152" s="91">
         <v>151</v>
       </c>
@@ -97833,7 +97833,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="153" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A153" s="91">
         <v>152</v>
       </c>
@@ -97874,7 +97874,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="154" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A154" s="91">
         <v>153</v>
       </c>
@@ -97912,7 +97912,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="155" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="155" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A155" s="91">
         <v>154</v>
       </c>
@@ -97950,7 +97950,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="156" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="156" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A156" s="91">
         <v>155</v>
       </c>
@@ -97991,7 +97991,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="157" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="157" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A157" s="91">
         <v>156</v>
       </c>
@@ -98029,7 +98029,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="158" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="158" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A158" s="91">
         <v>157</v>
       </c>
@@ -98070,7 +98070,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="159" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="159" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A159" s="91">
         <v>158</v>
       </c>
@@ -98108,7 +98108,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="160" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="160" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A160" s="91">
         <v>159</v>
       </c>
@@ -98149,7 +98149,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="161" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="161" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A161" s="91">
         <v>160</v>
       </c>
@@ -98187,7 +98187,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="162" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="162" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A162" s="91">
         <v>161</v>
       </c>
@@ -98225,7 +98225,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="163" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="163" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A163" s="91">
         <v>162</v>
       </c>
@@ -98263,7 +98263,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="164" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="164" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A164" s="91">
         <v>163</v>
       </c>
@@ -98304,7 +98304,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="165" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="165" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A165" s="91">
         <v>164</v>
       </c>
@@ -98342,7 +98342,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="166" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="166" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A166" s="91">
         <v>165</v>
       </c>
@@ -98380,7 +98380,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="167" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="167" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A167" s="91">
         <v>166</v>
       </c>
@@ -98418,7 +98418,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="168" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="168" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A168" s="91">
         <v>167</v>
       </c>
@@ -98459,7 +98459,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="169" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="169" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A169" s="91">
         <v>168</v>
       </c>
@@ -98497,7 +98497,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="170" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="170" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A170" s="91">
         <v>169</v>
       </c>
@@ -98538,7 +98538,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="171" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="171" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A171" s="91">
         <v>170</v>
       </c>
@@ -98579,7 +98579,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="172" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="172" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A172" s="91">
         <v>171</v>
       </c>
@@ -98617,7 +98617,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="173" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="173" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A173" s="91">
         <v>172</v>
       </c>
@@ -98655,7 +98655,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="174" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="174" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A174" s="91">
         <v>173</v>
       </c>
@@ -98696,7 +98696,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="175" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="175" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A175" s="91">
         <v>174</v>
       </c>
@@ -98734,7 +98734,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="176" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="176" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A176" s="91">
         <v>175</v>
       </c>
@@ -98772,7 +98772,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="177" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="177" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A177" s="91">
         <v>176</v>
       </c>
@@ -98810,7 +98810,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="178" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="178" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A178" s="91">
         <v>177</v>
       </c>
@@ -98848,7 +98848,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="179" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="179" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A179" s="91">
         <v>178</v>
       </c>
@@ -98886,7 +98886,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="180" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="180" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A180" s="91">
         <v>179</v>
       </c>
@@ -98927,7 +98927,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="181" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="181" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A181" s="91">
         <v>180</v>
       </c>
@@ -98968,7 +98968,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="182" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="182" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A182" s="91">
         <v>181</v>
       </c>
@@ -99006,7 +99006,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="183" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="183" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A183" s="91">
         <v>182</v>
       </c>
@@ -99044,7 +99044,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="184" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="184" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A184" s="91">
         <v>183</v>
       </c>
@@ -99082,7 +99082,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="185" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="185" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A185" s="91">
         <v>184</v>
       </c>
@@ -99120,7 +99120,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="186" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="186" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A186" s="91">
         <v>185</v>
       </c>
@@ -99161,7 +99161,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="187" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="187" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A187" s="91">
         <v>186</v>
       </c>
@@ -99202,7 +99202,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="188" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="188" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A188" s="91">
         <v>187</v>
       </c>
@@ -99240,7 +99240,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="189" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="189" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A189" s="91">
         <v>188</v>
       </c>
@@ -99278,7 +99278,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="190" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="190" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A190" s="91">
         <v>189</v>
       </c>
@@ -99316,7 +99316,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="191" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="191" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A191" s="91">
         <v>190</v>
       </c>
@@ -99357,7 +99357,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="192" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="192" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A192" s="91">
         <v>191</v>
       </c>
@@ -99395,7 +99395,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="193" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="193" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A193" s="91">
         <v>192</v>
       </c>
@@ -99433,7 +99433,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="194" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="194" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A194" s="91">
         <v>193</v>
       </c>
@@ -99474,7 +99474,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="195" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="195" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A195" s="91">
         <v>194</v>
       </c>
@@ -99518,7 +99518,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="196" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="196" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A196" s="91">
         <v>195</v>
       </c>
@@ -99556,7 +99556,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="197" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="197" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A197" s="91">
         <v>196</v>
       </c>
@@ -99600,7 +99600,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="198" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="198" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A198" s="91">
         <v>197</v>
       </c>
@@ -99638,7 +99638,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="199" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="199" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A199" s="91">
         <v>198</v>
       </c>
@@ -99676,7 +99676,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="200" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="200" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A200" s="91">
         <v>199</v>
       </c>
@@ -99714,7 +99714,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="201" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="201" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A201" s="91">
         <v>200</v>
       </c>
@@ -99752,7 +99752,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="202" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="202" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A202" s="91">
         <v>201</v>
       </c>
@@ -99790,7 +99790,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="203" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="203" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A203" s="91">
         <v>202</v>
       </c>
@@ -99828,7 +99828,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="204" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="204" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A204" s="91">
         <v>203</v>
       </c>
@@ -99866,7 +99866,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="205" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="205" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A205" s="91">
         <v>204</v>
       </c>
@@ -99907,7 +99907,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="206" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="206" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A206" s="91">
         <v>205</v>
       </c>
@@ -99948,7 +99948,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="207" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="207" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A207" s="91">
         <v>206</v>
       </c>
@@ -99986,7 +99986,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="208" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="208" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A208" s="91">
         <v>207</v>
       </c>
@@ -100024,7 +100024,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="209" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="209" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A209" s="91">
         <v>208</v>
       </c>
@@ -100062,7 +100062,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="210" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="210" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A210" s="91">
         <v>209</v>
       </c>
@@ -100100,7 +100100,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="211" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="211" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A211" s="91">
         <v>210</v>
       </c>
@@ -100138,7 +100138,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="212" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="212" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A212" s="91">
         <v>211</v>
       </c>
@@ -100176,7 +100176,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="213" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="213" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A213" s="91">
         <v>212</v>
       </c>
@@ -100214,7 +100214,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="214" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="214" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A214" s="91">
         <v>213</v>
       </c>
@@ -100252,7 +100252,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="215" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="215" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A215" s="91">
         <v>214</v>
       </c>
@@ -100290,7 +100290,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="216" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="216" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A216" s="91">
         <v>215</v>
       </c>
@@ -100328,7 +100328,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="217" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="217" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A217" s="91">
         <v>216</v>
       </c>
@@ -100366,7 +100366,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="218" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="218" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A218" s="91">
         <v>217</v>
       </c>
@@ -100404,7 +100404,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="219" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="219" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A219" s="91">
         <v>218</v>
       </c>
@@ -100445,7 +100445,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="220" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="220" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A220" s="91">
         <v>219</v>
       </c>
@@ -100483,7 +100483,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="221" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="221" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A221" s="91">
         <v>220</v>
       </c>
@@ -100524,7 +100524,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="222" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="222" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A222" s="91">
         <v>221</v>
       </c>
@@ -100562,7 +100562,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="223" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="223" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A223" s="91">
         <v>222</v>
       </c>
@@ -100600,7 +100600,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="224" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="224" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A224" s="91">
         <v>223</v>
       </c>
@@ -100638,7 +100638,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="225" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="225" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A225" s="91">
         <v>224</v>
       </c>
@@ -100676,7 +100676,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="226" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="226" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A226" s="91">
         <v>225</v>
       </c>
@@ -100714,7 +100714,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="227" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="227" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A227" s="91">
         <v>226</v>
       </c>
@@ -100752,7 +100752,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="228" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="228" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A228" s="91">
         <v>227</v>
       </c>
@@ -100793,7 +100793,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="229" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="229" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A229" s="91">
         <v>228</v>
       </c>
@@ -100831,7 +100831,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="230" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="230" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A230" s="91">
         <v>229</v>
       </c>
@@ -100869,7 +100869,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="231" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="231" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A231" s="91">
         <v>230</v>
       </c>
@@ -100907,7 +100907,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="232" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="232" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A232" s="91">
         <v>231</v>
       </c>
@@ -100945,7 +100945,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="233" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="233" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A233" s="91">
         <v>232</v>
       </c>
@@ -100983,7 +100983,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="234" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="234" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A234" s="91">
         <v>233</v>
       </c>
@@ -101021,7 +101021,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="235" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="235" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A235" s="91">
         <v>234</v>
       </c>
@@ -101059,7 +101059,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="236" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="236" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A236" s="91">
         <v>235</v>
       </c>
@@ -101100,7 +101100,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="237" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="237" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A237" s="91">
         <v>236</v>
       </c>
@@ -101138,7 +101138,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="238" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="238" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A238" s="91">
         <v>237</v>
       </c>
@@ -101176,7 +101176,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="239" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="239" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A239" s="91">
         <v>238</v>
       </c>
@@ -101214,7 +101214,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="240" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="240" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A240" s="91">
         <v>239</v>
       </c>
@@ -101255,7 +101255,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="241" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="241" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A241" s="91">
         <v>240</v>
       </c>
@@ -101293,7 +101293,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="242" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="242" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A242" s="91">
         <v>241</v>
       </c>
@@ -101334,7 +101334,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="243" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="243" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A243" s="91">
         <v>242</v>
       </c>
@@ -101372,7 +101372,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="244" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="244" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A244" s="91">
         <v>243</v>
       </c>
@@ -101410,7 +101410,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="245" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="245" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A245" s="91">
         <v>244</v>
       </c>
@@ -101448,7 +101448,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="246" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="246" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A246" s="91">
         <v>245</v>
       </c>
@@ -101486,7 +101486,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="247" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="247" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A247" s="91">
         <v>246</v>
       </c>
@@ -101530,7 +101530,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="248" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="248" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A248" s="91">
         <v>247</v>
       </c>
@@ -101568,7 +101568,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="249" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="249" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A249" s="91">
         <v>248</v>
       </c>
@@ -101609,7 +101609,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="250" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="250" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A250" s="91">
         <v>249</v>
       </c>
@@ -101647,7 +101647,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="251" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="251" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A251" s="91">
         <v>250</v>
       </c>
@@ -101688,7 +101688,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="252" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="252" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A252" s="91">
         <v>251</v>
       </c>
@@ -101729,7 +101729,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="253" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="253" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A253" s="91">
         <v>252</v>
       </c>
@@ -101767,7 +101767,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="254" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="254" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A254" s="91">
         <v>253</v>
       </c>
@@ -101805,7 +101805,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="255" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="255" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A255" s="91">
         <v>254</v>
       </c>
@@ -101843,7 +101843,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="256" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="256" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A256" s="91">
         <v>255</v>
       </c>
@@ -101881,7 +101881,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="257" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="257" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A257" s="91">
         <v>256</v>
       </c>
@@ -101919,7 +101919,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="258" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="258" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A258" s="91">
         <v>257</v>
       </c>
@@ -101957,7 +101957,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="259" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="259" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A259" s="91">
         <v>258</v>
       </c>
@@ -101995,7 +101995,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="260" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="260" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A260" s="91">
         <v>259</v>
       </c>
@@ -102033,7 +102033,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="261" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="261" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A261" s="91">
         <v>260</v>
       </c>
@@ -102074,7 +102074,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="262" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="262" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A262" s="91">
         <v>261</v>
       </c>
@@ -102112,7 +102112,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="263" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="263" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A263" s="91">
         <v>262</v>
       </c>
@@ -102150,7 +102150,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="264" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="264" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A264" s="91">
         <v>263</v>
       </c>
@@ -102191,7 +102191,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="265" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="265" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A265" s="91">
         <v>264</v>
       </c>
@@ -102229,7 +102229,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="266" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="266" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A266" s="91">
         <v>265</v>
       </c>
@@ -102267,7 +102267,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="267" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="267" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A267" s="91">
         <v>266</v>
       </c>
@@ -102305,7 +102305,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="268" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="268" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A268" s="91">
         <v>267</v>
       </c>
@@ -102343,7 +102343,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="269" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="269" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A269" s="91">
         <v>268</v>
       </c>
@@ -102381,7 +102381,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="270" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="270" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A270" s="91">
         <v>269</v>
       </c>

--- a/resources/the_only_excel.xlsx
+++ b/resources/the_only_excel.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="M:\Universidad\Workspace\TFG-UroAnalytics\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{692F5C9A-4501-4685-8B69-E5B0ABC2CBD3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0EA7746E-1E9B-4028-BDAC-EFE3F2CE59C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -742,9 +742,16 @@
     <numFmt numFmtId="164" formatCode="dd\.mm\.yyyy"/>
     <numFmt numFmtId="165" formatCode="0.0"/>
   </numFmts>
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -1075,170 +1082,171 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="97">
+  <cellXfs count="98">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" readingOrder="1"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="9" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" readingOrder="1"/>
     </xf>
-    <xf numFmtId="14" fontId="7" fillId="9" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="8" fillId="9" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="10" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="10" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="14" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="14" fontId="0" fillId="12" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="7" fillId="12" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="8" fillId="12" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="12" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="11" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="4" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="18" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="17" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="19" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="20" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1520,7 +1528,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Hoja1"/>
-  <dimension ref="A1:BP270"/>
+  <dimension ref="A1:BP271"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="85" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B256" activePane="bottomRight" state="frozen"/>
@@ -52649,6 +52657,70 @@
         <v>0.00</v>
       </c>
     </row>
+    <row r="271" spans="1:68" x14ac:dyDescent="0.25">
+      <c r="A271" s="57"/>
+      <c r="B271" s="58"/>
+      <c r="C271" s="97"/>
+      <c r="D271" s="57"/>
+      <c r="E271" s="97"/>
+      <c r="F271" s="57"/>
+      <c r="G271" s="57"/>
+      <c r="H271" s="57"/>
+      <c r="I271" s="57"/>
+      <c r="J271" s="57"/>
+      <c r="K271" s="57"/>
+      <c r="L271" s="57"/>
+      <c r="M271" s="57"/>
+      <c r="N271" s="57"/>
+      <c r="O271" s="57"/>
+      <c r="P271" s="57"/>
+      <c r="Q271" s="57"/>
+      <c r="R271" s="57"/>
+      <c r="S271" s="57"/>
+      <c r="T271" s="57"/>
+      <c r="U271" s="57"/>
+      <c r="V271" s="57"/>
+      <c r="W271" s="57"/>
+      <c r="X271" s="57"/>
+      <c r="Y271" s="57"/>
+      <c r="Z271" s="57"/>
+      <c r="AA271" s="57"/>
+      <c r="AB271" s="57"/>
+      <c r="AC271" s="57"/>
+      <c r="AD271" s="57"/>
+      <c r="AE271" s="57"/>
+      <c r="AF271" s="57"/>
+      <c r="AG271" s="57"/>
+      <c r="AH271" s="57"/>
+      <c r="AI271" s="57"/>
+      <c r="AJ271" s="57"/>
+      <c r="AK271" s="57"/>
+      <c r="AL271" s="57"/>
+      <c r="AM271" s="57"/>
+      <c r="AN271" s="57"/>
+      <c r="AO271" s="57"/>
+      <c r="AP271" s="76"/>
+      <c r="AQ271" s="57"/>
+      <c r="AR271" s="57"/>
+      <c r="AS271" s="79"/>
+      <c r="AT271" s="57"/>
+      <c r="AU271" s="58"/>
+      <c r="AV271" s="67"/>
+      <c r="AW271" s="57"/>
+      <c r="AX271" s="57"/>
+      <c r="AY271" s="57"/>
+      <c r="AZ271" s="57"/>
+      <c r="BA271" s="57"/>
+      <c r="BB271" s="57"/>
+      <c r="BC271" s="57"/>
+      <c r="BD271" s="57"/>
+      <c r="BE271" s="57"/>
+      <c r="BF271" s="57"/>
+      <c r="BG271" s="57"/>
+      <c r="BH271" s="57"/>
+      <c r="BI271" s="57"/>
+      <c r="BJ271" s="57"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
